--- a/Design/MechanicDesign.xlsx
+++ b/Design/MechanicDesign.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="198">
   <si>
     <t>Range</t>
   </si>
@@ -562,9 +562,6 @@
     <t>minimap</t>
   </si>
   <si>
-    <t>hull health</t>
-  </si>
-  <si>
     <t>melee damage</t>
   </si>
   <si>
@@ -613,10 +610,16 @@
     <t>RADIATOR</t>
   </si>
   <si>
-    <t>central overheat limi</t>
+    <t>value</t>
   </si>
   <si>
-    <t>value</t>
+    <t>damage protection</t>
+  </si>
+  <si>
+    <t>hull overheat limi</t>
+  </si>
+  <si>
+    <t>hull armor</t>
   </si>
 </sst>
 </file>
@@ -1307,11 +1310,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="66835200"/>
-        <c:axId val="66836736"/>
+        <c:axId val="116219904"/>
+        <c:axId val="116221440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66835200"/>
+        <c:axId val="116219904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1320,7 +1323,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66836736"/>
+        <c:crossAx val="116221440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1328,7 +1331,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66836736"/>
+        <c:axId val="116221440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1339,7 +1342,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66835200"/>
+        <c:crossAx val="116219904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1449,11 +1452,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189957248"/>
-        <c:axId val="189958784"/>
+        <c:axId val="126800256"/>
+        <c:axId val="126801792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189957248"/>
+        <c:axId val="126800256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1462,7 +1465,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189958784"/>
+        <c:crossAx val="126801792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1470,7 +1473,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189958784"/>
+        <c:axId val="126801792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1481,7 +1484,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189957248"/>
+        <c:crossAx val="126800256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1597,11 +1600,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189966976"/>
-        <c:axId val="189968768"/>
+        <c:axId val="126498688"/>
+        <c:axId val="126500224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189966976"/>
+        <c:axId val="126498688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1610,7 +1613,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189968768"/>
+        <c:crossAx val="126500224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1618,7 +1621,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189968768"/>
+        <c:axId val="126500224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1629,7 +1632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189966976"/>
+        <c:crossAx val="126498688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1700,7 +1703,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>hull health</c:v>
+                  <c:v>damage protection</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1713,19 +1716,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1740,11 +1743,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="190337408"/>
-        <c:axId val="190338944"/>
+        <c:axId val="126516608"/>
+        <c:axId val="126538880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190337408"/>
+        <c:axId val="126516608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,7 +1756,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190338944"/>
+        <c:crossAx val="126538880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1761,7 +1764,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190338944"/>
+        <c:axId val="126538880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1772,7 +1775,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190337408"/>
+        <c:crossAx val="126516608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1883,11 +1886,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="190363520"/>
-        <c:axId val="190365056"/>
+        <c:axId val="126628992"/>
+        <c:axId val="126630528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190363520"/>
+        <c:axId val="126628992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1896,7 +1899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190365056"/>
+        <c:crossAx val="126630528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1904,7 +1907,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190365056"/>
+        <c:axId val="126630528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1915,7 +1918,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190363520"/>
+        <c:crossAx val="126628992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2026,11 +2029,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="190389632"/>
-        <c:axId val="190395520"/>
+        <c:axId val="126651008"/>
+        <c:axId val="126652800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="190389632"/>
+        <c:axId val="126651008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2039,7 +2042,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190395520"/>
+        <c:crossAx val="126652800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2047,7 +2050,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190395520"/>
+        <c:axId val="126652800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2058,7 +2061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190389632"/>
+        <c:crossAx val="126651008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2516,11 +2519,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="79985664"/>
-        <c:axId val="79995648"/>
+        <c:axId val="127162624"/>
+        <c:axId val="125243392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79985664"/>
+        <c:axId val="127162624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2529,7 +2532,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79995648"/>
+        <c:crossAx val="125243392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2537,7 +2540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79995648"/>
+        <c:axId val="125243392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2548,7 +2551,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79985664"/>
+        <c:crossAx val="127162624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3005,11 +3008,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80106624"/>
-        <c:axId val="80108160"/>
+        <c:axId val="125276544"/>
+        <c:axId val="125278080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80106624"/>
+        <c:axId val="125276544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3018,7 +3021,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80108160"/>
+        <c:crossAx val="125278080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3026,7 +3029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80108160"/>
+        <c:axId val="125278080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3037,7 +3040,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80106624"/>
+        <c:crossAx val="125276544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3494,11 +3497,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80133120"/>
-        <c:axId val="66913024"/>
+        <c:axId val="127342848"/>
+        <c:axId val="127361024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80133120"/>
+        <c:axId val="127342848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3507,7 +3510,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66913024"/>
+        <c:crossAx val="127361024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3515,7 +3518,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66913024"/>
+        <c:axId val="127361024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3526,7 +3529,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80133120"/>
+        <c:crossAx val="127342848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3983,11 +3986,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="66942080"/>
-        <c:axId val="66943616"/>
+        <c:axId val="127385984"/>
+        <c:axId val="127387520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66942080"/>
+        <c:axId val="127385984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3996,7 +3999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66943616"/>
+        <c:crossAx val="127387520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4004,7 +4007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66943616"/>
+        <c:axId val="127387520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4015,7 +4018,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66942080"/>
+        <c:crossAx val="127385984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4472,11 +4475,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="67116032"/>
-        <c:axId val="67126016"/>
+        <c:axId val="127494400"/>
+        <c:axId val="127504384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67116032"/>
+        <c:axId val="127494400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4485,7 +4488,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67126016"/>
+        <c:crossAx val="127504384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4493,7 +4496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67126016"/>
+        <c:axId val="127504384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4504,7 +4507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67116032"/>
+        <c:crossAx val="127494400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4979,11 +4982,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="77610368"/>
-        <c:axId val="77612160"/>
+        <c:axId val="116300416"/>
+        <c:axId val="116306304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77610368"/>
+        <c:axId val="116300416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4992,7 +4995,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77612160"/>
+        <c:crossAx val="116306304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5000,7 +5003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77612160"/>
+        <c:axId val="116306304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5013,7 +5016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77610368"/>
+        <c:crossAx val="116300416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5470,11 +5473,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="67167360"/>
-        <c:axId val="67168896"/>
+        <c:axId val="127541632"/>
+        <c:axId val="127543168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67167360"/>
+        <c:axId val="127541632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5483,7 +5486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67168896"/>
+        <c:crossAx val="127543168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5491,7 +5494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67168896"/>
+        <c:axId val="127543168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5502,7 +5505,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67167360"/>
+        <c:crossAx val="127541632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5959,11 +5962,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80456704"/>
-        <c:axId val="80462592"/>
+        <c:axId val="127588608"/>
+        <c:axId val="127594496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80456704"/>
+        <c:axId val="127588608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5972,7 +5975,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80462592"/>
+        <c:crossAx val="127594496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5980,7 +5983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80462592"/>
+        <c:axId val="127594496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5991,7 +5994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80456704"/>
+        <c:crossAx val="127588608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6448,11 +6451,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80491648"/>
-        <c:axId val="80493184"/>
+        <c:axId val="127639936"/>
+        <c:axId val="127641472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80491648"/>
+        <c:axId val="127639936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6461,7 +6464,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80493184"/>
+        <c:crossAx val="127641472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6469,7 +6472,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80493184"/>
+        <c:axId val="127641472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6480,7 +6483,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80491648"/>
+        <c:crossAx val="127639936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6937,11 +6940,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80616448"/>
-        <c:axId val="80622336"/>
+        <c:axId val="128010496"/>
+        <c:axId val="128016384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80616448"/>
+        <c:axId val="128010496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6950,7 +6953,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80622336"/>
+        <c:crossAx val="128016384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6958,7 +6961,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80622336"/>
+        <c:axId val="128016384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6969,7 +6972,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80616448"/>
+        <c:crossAx val="128010496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7111,11 +7114,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80646912"/>
-        <c:axId val="80648448"/>
+        <c:axId val="125419520"/>
+        <c:axId val="125421056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80646912"/>
+        <c:axId val="125419520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7125,7 +7128,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80648448"/>
+        <c:crossAx val="125421056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7135,7 +7138,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80648448"/>
+        <c:axId val="125421056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -7148,7 +7151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80646912"/>
+        <c:crossAx val="125419520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7605,11 +7608,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80888960"/>
-        <c:axId val="80890496"/>
+        <c:axId val="127910272"/>
+        <c:axId val="127911808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80888960"/>
+        <c:axId val="127910272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7618,7 +7621,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80890496"/>
+        <c:crossAx val="127911808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7626,7 +7629,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80890496"/>
+        <c:axId val="127911808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7637,7 +7640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80888960"/>
+        <c:crossAx val="127910272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7838,11 +7841,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80918016"/>
-        <c:axId val="80926592"/>
+        <c:axId val="128042880"/>
+        <c:axId val="127935616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80918016"/>
+        <c:axId val="128042880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7851,7 +7854,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80926592"/>
+        <c:crossAx val="127935616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7859,7 +7862,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80926592"/>
+        <c:axId val="127935616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7870,7 +7873,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80918016"/>
+        <c:crossAx val="128042880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8015,11 +8018,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="51190016"/>
-        <c:axId val="51195904"/>
+        <c:axId val="129660416"/>
+        <c:axId val="129661952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="51190016"/>
+        <c:axId val="129660416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8028,7 +8031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51195904"/>
+        <c:crossAx val="129661952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8036,7 +8039,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51195904"/>
+        <c:axId val="129661952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8047,7 +8050,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51190016"/>
+        <c:crossAx val="129660416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8145,11 +8148,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81278464"/>
-        <c:axId val="81280000"/>
+        <c:axId val="129532672"/>
+        <c:axId val="129534208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81278464"/>
+        <c:axId val="129532672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8158,7 +8161,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81280000"/>
+        <c:crossAx val="129534208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8166,7 +8169,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81280000"/>
+        <c:axId val="129534208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8177,13 +8180,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81278464"/>
+        <c:crossAx val="129532672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8402,11 +8406,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81326464"/>
-        <c:axId val="81328000"/>
+        <c:axId val="129416576"/>
+        <c:axId val="129418368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81326464"/>
+        <c:axId val="129416576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8415,7 +8419,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81328000"/>
+        <c:crossAx val="129418368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8423,7 +8427,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81328000"/>
+        <c:axId val="129418368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8434,13 +8438,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81326464"/>
+        <c:crossAx val="129416576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8909,11 +8914,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="188966784"/>
-        <c:axId val="188968320"/>
+        <c:axId val="126022784"/>
+        <c:axId val="126024320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="188966784"/>
+        <c:axId val="126022784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8922,7 +8927,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188968320"/>
+        <c:crossAx val="126024320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8930,7 +8935,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188968320"/>
+        <c:axId val="126024320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -8943,7 +8948,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188966784"/>
+        <c:crossAx val="126022784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9094,11 +9099,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81213696"/>
-        <c:axId val="81223680"/>
+        <c:axId val="130225664"/>
+        <c:axId val="130227200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81213696"/>
+        <c:axId val="130225664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9107,7 +9112,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81223680"/>
+        <c:crossAx val="130227200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9115,7 +9120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81223680"/>
+        <c:axId val="130227200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9126,13 +9131,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81213696"/>
+        <c:crossAx val="130225664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -9238,11 +9244,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81231232"/>
-        <c:axId val="81249408"/>
+        <c:axId val="130239104"/>
+        <c:axId val="130249088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81231232"/>
+        <c:axId val="130239104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9251,7 +9257,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81249408"/>
+        <c:crossAx val="130249088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9259,7 +9265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81249408"/>
+        <c:axId val="130249088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9270,7 +9276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81231232"/>
+        <c:crossAx val="130239104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9471,11 +9477,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81986688"/>
-        <c:axId val="82007168"/>
+        <c:axId val="130271872"/>
+        <c:axId val="129843584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81986688"/>
+        <c:axId val="130271872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9484,7 +9490,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82007168"/>
+        <c:crossAx val="129843584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9492,7 +9498,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82007168"/>
+        <c:axId val="129843584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9503,7 +9509,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81986688"/>
+        <c:crossAx val="130271872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9670,11 +9676,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81167872"/>
-        <c:axId val="81169408"/>
+        <c:axId val="129872640"/>
+        <c:axId val="129874176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81167872"/>
+        <c:axId val="129872640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9683,7 +9689,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81169408"/>
+        <c:crossAx val="129874176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9691,7 +9697,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81169408"/>
+        <c:axId val="129874176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9702,7 +9708,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81167872"/>
+        <c:crossAx val="129872640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9869,11 +9875,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81190272"/>
-        <c:axId val="81196160"/>
+        <c:axId val="130042496"/>
+        <c:axId val="130044288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81190272"/>
+        <c:axId val="130042496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9882,7 +9888,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81196160"/>
+        <c:crossAx val="130044288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9890,7 +9896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81196160"/>
+        <c:axId val="130044288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9901,7 +9907,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81190272"/>
+        <c:crossAx val="130042496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10068,11 +10074,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81880576"/>
-        <c:axId val="81882112"/>
+        <c:axId val="130069248"/>
+        <c:axId val="130070784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81880576"/>
+        <c:axId val="130069248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10081,7 +10087,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81882112"/>
+        <c:crossAx val="130070784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10089,7 +10095,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81882112"/>
+        <c:axId val="130070784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10100,7 +10106,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81880576"/>
+        <c:crossAx val="130069248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10267,11 +10273,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82324864"/>
-        <c:axId val="82359424"/>
+        <c:axId val="130079360"/>
+        <c:axId val="130175360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82324864"/>
+        <c:axId val="130079360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10280,7 +10286,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82359424"/>
+        <c:crossAx val="130175360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10288,7 +10294,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82359424"/>
+        <c:axId val="130175360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10299,7 +10305,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82324864"/>
+        <c:crossAx val="130079360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10466,11 +10472,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82380288"/>
-        <c:axId val="82381824"/>
+        <c:axId val="130208512"/>
+        <c:axId val="130210048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82380288"/>
+        <c:axId val="130208512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10479,7 +10485,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82381824"/>
+        <c:crossAx val="130210048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10487,7 +10493,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82381824"/>
+        <c:axId val="130210048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10498,7 +10504,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82380288"/>
+        <c:crossAx val="130208512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10665,11 +10671,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82402688"/>
-        <c:axId val="82412672"/>
+        <c:axId val="130632320"/>
+        <c:axId val="130642304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82402688"/>
+        <c:axId val="130632320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10678,7 +10684,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82412672"/>
+        <c:crossAx val="130642304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10686,7 +10692,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82412672"/>
+        <c:axId val="130642304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10697,7 +10703,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82402688"/>
+        <c:crossAx val="130632320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11172,11 +11178,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="189228928"/>
-        <c:axId val="189230464"/>
+        <c:axId val="126066048"/>
+        <c:axId val="126071936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="189228928"/>
+        <c:axId val="126066048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11185,7 +11191,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189230464"/>
+        <c:crossAx val="126071936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11193,7 +11199,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189230464"/>
+        <c:axId val="126071936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -11206,7 +11212,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189228928"/>
+        <c:crossAx val="126066048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11681,11 +11687,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="189367040"/>
-        <c:axId val="189368576"/>
+        <c:axId val="126184832"/>
+        <c:axId val="126198912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="189367040"/>
+        <c:axId val="126184832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11694,7 +11700,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189368576"/>
+        <c:crossAx val="126198912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11702,7 +11708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189368576"/>
+        <c:axId val="126198912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -11715,7 +11721,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189367040"/>
+        <c:crossAx val="126184832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11766,7 +11772,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -12191,11 +12196,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="189418880"/>
-        <c:axId val="189432960"/>
+        <c:axId val="126261888"/>
+        <c:axId val="126267776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="189418880"/>
+        <c:axId val="126261888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12204,7 +12209,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189432960"/>
+        <c:crossAx val="126267776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12212,7 +12217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189432960"/>
+        <c:axId val="126267776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -12225,14 +12230,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189418880"/>
+        <c:crossAx val="126261888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -12702,11 +12706,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="189765504"/>
-        <c:axId val="189767040"/>
+        <c:axId val="126389632"/>
+        <c:axId val="126391424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="189765504"/>
+        <c:axId val="126389632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12715,7 +12719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189767040"/>
+        <c:crossAx val="126391424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12723,7 +12727,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189767040"/>
+        <c:axId val="126391424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -12736,7 +12740,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189765504"/>
+        <c:crossAx val="126389632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13213,11 +13217,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="189892864"/>
-        <c:axId val="189898752"/>
+        <c:axId val="126453248"/>
+        <c:axId val="126454784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="189892864"/>
+        <c:axId val="126453248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13226,7 +13230,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189898752"/>
+        <c:crossAx val="126454784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13234,7 +13238,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189898752"/>
+        <c:axId val="126454784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -13247,7 +13251,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189892864"/>
+        <c:crossAx val="126453248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13358,11 +13362,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="189910400"/>
-        <c:axId val="189920384"/>
+        <c:axId val="126757504"/>
+        <c:axId val="126763392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="189910400"/>
+        <c:axId val="126757504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13371,7 +13375,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189920384"/>
+        <c:crossAx val="126763392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13379,7 +13383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189920384"/>
+        <c:axId val="126763392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13390,7 +13394,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189910400"/>
+        <c:crossAx val="126757504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13525,11 +13529,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp124.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$L$202" horiz="1" max="100" page="10" val="10"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$L$202" horiz="1" max="100" page="10"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp125.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$L$204" horiz="1" max="100" page="10" val="50"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$L$204" horiz="1" max="100" page="10" val="20"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp126.xml><?xml version="1.0" encoding="utf-8"?>
@@ -24407,8 +24411,8 @@
     <tableColumn id="2" name="mark"/>
     <tableColumn id="3" name="radar radius"/>
     <tableColumn id="4" name="accuracy"/>
-    <tableColumn id="5" name="central overheat limi"/>
-    <tableColumn id="6" name="hull health"/>
+    <tableColumn id="5" name="hull overheat limi"/>
+    <tableColumn id="6" name="hull armor"/>
     <tableColumn id="7" name="melee damage"/>
     <tableColumn id="8" name="cooling rate"/>
     <tableColumn id="9" name="minimap"/>
@@ -24898,8 +24902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24948,7 +24952,7 @@
         <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L2" t="s">
         <v>153</v>
@@ -24957,13 +24961,13 @@
         <v>110</v>
       </c>
       <c r="N2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O2" t="s">
         <v>187</v>
       </c>
-      <c r="O2" t="s">
-        <v>188</v>
-      </c>
       <c r="P2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q2" t="s">
         <v>136</v>
@@ -25462,13 +25466,13 @@
         <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q14" t="s">
+        <v>197</v>
+      </c>
+      <c r="R14" t="s">
         <v>178</v>
-      </c>
-      <c r="R14" t="s">
-        <v>179</v>
       </c>
       <c r="S14" t="s">
         <v>90</v>
@@ -26210,7 +26214,7 @@
       </c>
       <c r="Q30">
         <f>'ITEM STATS'!L209</f>
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -26256,7 +26260,7 @@
       </c>
       <c r="Q31">
         <f>'ITEM STATS'!L210</f>
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -26302,7 +26306,7 @@
       </c>
       <c r="Q32">
         <f>'ITEM STATS'!L211</f>
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -26348,7 +26352,7 @@
       </c>
       <c r="Q33">
         <f>'ITEM STATS'!L212</f>
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -26394,7 +26398,7 @@
       </c>
       <c r="Q34">
         <f>'ITEM STATS'!L213</f>
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -26663,7 +26667,7 @@
         <v>40</v>
       </c>
       <c r="L40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -26709,7 +26713,7 @@
         <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M41">
         <v>2</v>
@@ -26755,7 +26759,7 @@
         <v>40</v>
       </c>
       <c r="L42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M42">
         <v>3</v>
@@ -26801,7 +26805,7 @@
         <v>20</v>
       </c>
       <c r="L43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M43">
         <v>4</v>
@@ -26847,7 +26851,7 @@
         <v>20</v>
       </c>
       <c r="L44" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M44">
         <v>5</v>
@@ -32930,8 +32934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:N228"/>
   <sheetViews>
-    <sheetView topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="L209" sqref="L209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33525,7 +33529,7 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -33644,7 +33648,7 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -34021,7 +34025,7 @@
         <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -34140,7 +34144,7 @@
         <v>46</v>
       </c>
       <c r="I64" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -34517,7 +34521,7 @@
         <v>46</v>
       </c>
       <c r="I78" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -34636,7 +34640,7 @@
         <v>46</v>
       </c>
       <c r="I85" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -35013,7 +35017,7 @@
         <v>46</v>
       </c>
       <c r="I99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -35132,7 +35136,7 @@
         <v>46</v>
       </c>
       <c r="I106" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -35509,7 +35513,7 @@
         <v>46</v>
       </c>
       <c r="I120" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -35628,7 +35632,7 @@
         <v>46</v>
       </c>
       <c r="I127" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -36005,7 +36009,7 @@
         <v>46</v>
       </c>
       <c r="I141" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -36124,7 +36128,7 @@
         <v>46</v>
       </c>
       <c r="I148" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -36501,7 +36505,7 @@
         <v>46</v>
       </c>
       <c r="I162" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -36620,7 +36624,7 @@
         <v>46</v>
       </c>
       <c r="I169" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -36965,10 +36969,10 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C183" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D183">
         <f>E183/100</f>
@@ -36980,13 +36984,13 @@
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B185" t="s">
         <v>171</v>
       </c>
       <c r="K185" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L185" t="s">
         <v>170</v>
@@ -36994,13 +36998,13 @@
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B187">
         <v>1</v>
       </c>
       <c r="K187" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L187">
         <v>10</v>
@@ -37038,13 +37042,13 @@
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>183</v>
+      </c>
+      <c r="B193" t="s">
         <v>184</v>
       </c>
-      <c r="B193" t="s">
-        <v>185</v>
-      </c>
       <c r="K193" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L193" t="s">
         <v>43</v>
@@ -37132,13 +37136,13 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B200" t="s">
         <v>173</v>
       </c>
       <c r="K200" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L200" t="s">
         <v>174</v>
@@ -37146,16 +37150,16 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B202">
         <v>1</v>
       </c>
       <c r="K202" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L202">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
@@ -37169,7 +37173,7 @@
         <v>81</v>
       </c>
       <c r="L204">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
@@ -37185,21 +37189,21 @@
       </c>
       <c r="L206">
         <f>L202+((L204-L202)*$D$183)</f>
-        <v>30</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B208" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K208" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L208" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
@@ -37215,7 +37219,7 @@
       </c>
       <c r="L209">
         <f>ROUND((((1-($K209/5))^2)*L$202)+(2*(1-($K209/5))*($K209/5)*L$206)+((($K209/5)^2)*L$204),0)</f>
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
@@ -37231,7 +37235,7 @@
       </c>
       <c r="L210">
         <f>ROUND((((1-($K210/5))^2)*L$202)+(2*(1-($K210/5))*($K210/5)*L$206)+((($K210/5)^2)*L$204),0)</f>
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
@@ -37247,7 +37251,7 @@
       </c>
       <c r="L211">
         <f>ROUND((((1-($K211/5))^2)*L$202)+(2*(1-($K211/5))*($K211/5)*L$206)+((($K211/5)^2)*L$204),0)</f>
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
@@ -37263,7 +37267,7 @@
       </c>
       <c r="L212">
         <f>ROUND((((1-($K212/5))^2)*L$202)+(2*(1-($K212/5))*($K212/5)*L$206)+((($K212/5)^2)*L$204),0)</f>
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
@@ -37279,32 +37283,32 @@
       </c>
       <c r="L213">
         <f>ROUND((((1-($K213/5))^2)*L$202)+(2*(1-($K213/5))*($K213/5)*L$206)+((($K213/5)^2)*L$204),0)</f>
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B215" t="s">
         <v>175</v>
       </c>
       <c r="K215" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L215" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B217">
         <v>0</v>
       </c>
       <c r="K217" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L217">
         <v>4</v>
@@ -37342,13 +37346,13 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B223" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K223" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L223" t="s">
         <v>90</v>
@@ -46272,13 +46276,13 @@
         <v>134</v>
       </c>
       <c r="D2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" t="s">
         <v>189</v>
       </c>
-      <c r="F2" t="s">
-        <v>190</v>
-      </c>
       <c r="H2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J2" t="s">
         <v>136</v>

--- a/Design/MechanicDesign.xlsx
+++ b/Design/MechanicDesign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="525" windowWidth="14805" windowHeight="7590" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DATABASE" sheetId="12" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="HIT%" sheetId="7" r:id="rId4"/>
     <sheet name="WEAPON CALC" sheetId="13" r:id="rId5"/>
     <sheet name="ENEMY STATS" sheetId="11" r:id="rId6"/>
-    <sheet name="MISSION BALANCING" sheetId="14" r:id="rId7"/>
+    <sheet name="MISSION SIMU" sheetId="14" r:id="rId7"/>
     <sheet name="LOOT" sheetId="15" r:id="rId8"/>
     <sheet name="MENU STUFF" sheetId="17" r:id="rId9"/>
     <sheet name="INCOMING DMG %" sheetId="8" r:id="rId10"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="420">
   <si>
     <t>Range</t>
   </si>
@@ -1252,6 +1252,45 @@
   <si>
     <t>#</t>
   </si>
+  <si>
+    <t>AVG MAX</t>
+  </si>
+  <si>
+    <t>AVG REWARD / TIME MAX</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>Def%</t>
+  </si>
+  <si>
+    <t>PLAYER CASH</t>
+  </si>
+  <si>
+    <t>INITIAL DEBT</t>
+  </si>
+  <si>
+    <t>DEFAULT INTEREST</t>
+  </si>
+  <si>
+    <t>INTEREST GROWTH</t>
+  </si>
+  <si>
+    <t>monthsSinceTaken * defaultInterest</t>
+  </si>
+  <si>
+    <t>Inc%</t>
+  </si>
+  <si>
+    <t>ORIG DEBT</t>
+  </si>
+  <si>
+    <t>DEBT BONUS</t>
+  </si>
+  <si>
+    <t>EXTRA CUT</t>
+  </si>
 </sst>
 </file>
 
@@ -1342,7 +1381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1362,6 +1401,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2029,11 +2069,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119755904"/>
-        <c:axId val="119757440"/>
+        <c:axId val="119952512"/>
+        <c:axId val="119954048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119755904"/>
+        <c:axId val="119952512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2042,7 +2082,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119757440"/>
+        <c:crossAx val="119954048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2050,7 +2090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119757440"/>
+        <c:axId val="119954048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2061,7 +2101,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119755904"/>
+        <c:crossAx val="119952512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2170,11 +2210,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="121681024"/>
-        <c:axId val="121682560"/>
+        <c:axId val="121869440"/>
+        <c:axId val="121870976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121681024"/>
+        <c:axId val="121869440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2183,7 +2223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121682560"/>
+        <c:crossAx val="121870976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2191,7 +2231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121682560"/>
+        <c:axId val="121870976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2202,7 +2242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121681024"/>
+        <c:crossAx val="121869440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2316,11 +2356,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="122038912"/>
-        <c:axId val="122044800"/>
+        <c:axId val="123275904"/>
+        <c:axId val="123277696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122038912"/>
+        <c:axId val="123275904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2329,7 +2369,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122044800"/>
+        <c:crossAx val="123277696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2337,7 +2377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122044800"/>
+        <c:axId val="123277696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2348,7 +2388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122038912"/>
+        <c:crossAx val="123275904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2457,11 +2497,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="122069376"/>
-        <c:axId val="122070912"/>
+        <c:axId val="123314560"/>
+        <c:axId val="123316096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122069376"/>
+        <c:axId val="123314560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2470,7 +2510,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122070912"/>
+        <c:crossAx val="123316096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2478,7 +2518,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122070912"/>
+        <c:axId val="123316096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2489,7 +2529,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122069376"/>
+        <c:crossAx val="123314560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2598,11 +2638,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="122103680"/>
-        <c:axId val="122105216"/>
+        <c:axId val="123352960"/>
+        <c:axId val="123354496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122103680"/>
+        <c:axId val="123352960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2611,7 +2651,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122105216"/>
+        <c:crossAx val="123354496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2619,7 +2659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122105216"/>
+        <c:axId val="123354496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2630,7 +2670,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122103680"/>
+        <c:crossAx val="123352960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2739,11 +2779,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="122129792"/>
-        <c:axId val="122135680"/>
+        <c:axId val="123379072"/>
+        <c:axId val="123384960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122129792"/>
+        <c:axId val="123379072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2752,7 +2792,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122135680"/>
+        <c:crossAx val="123384960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2760,7 +2800,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122135680"/>
+        <c:axId val="123384960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2771,7 +2811,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122129792"/>
+        <c:crossAx val="123379072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2880,11 +2920,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="122754176"/>
-        <c:axId val="122755712"/>
+        <c:axId val="123999360"/>
+        <c:axId val="124000896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="122754176"/>
+        <c:axId val="123999360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2893,7 +2933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122755712"/>
+        <c:crossAx val="124000896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2901,7 +2941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122755712"/>
+        <c:axId val="124000896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2912,7 +2952,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122754176"/>
+        <c:crossAx val="123999360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3369,11 +3409,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122575488"/>
-        <c:axId val="122762752"/>
+        <c:axId val="123894400"/>
+        <c:axId val="124007936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122575488"/>
+        <c:axId val="123894400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3382,7 +3422,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122762752"/>
+        <c:crossAx val="124007936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3390,7 +3430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122762752"/>
+        <c:axId val="124007936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3401,7 +3441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122575488"/>
+        <c:crossAx val="123894400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3858,11 +3898,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="120089216"/>
-        <c:axId val="120091008"/>
+        <c:axId val="119364224"/>
+        <c:axId val="119370112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120089216"/>
+        <c:axId val="119364224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3871,7 +3911,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120091008"/>
+        <c:crossAx val="119370112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3879,7 +3919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120091008"/>
+        <c:axId val="119370112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3890,7 +3930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120089216"/>
+        <c:crossAx val="119364224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4347,11 +4387,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123147008"/>
-        <c:axId val="123148544"/>
+        <c:axId val="124130048"/>
+        <c:axId val="124131584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123147008"/>
+        <c:axId val="124130048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4360,7 +4400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123148544"/>
+        <c:crossAx val="124131584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4368,7 +4408,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123148544"/>
+        <c:axId val="124131584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4379,7 +4419,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123147008"/>
+        <c:crossAx val="124130048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4836,11 +4876,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123189888"/>
-        <c:axId val="123199872"/>
+        <c:axId val="124168832"/>
+        <c:axId val="124174720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123189888"/>
+        <c:axId val="124168832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4849,7 +4889,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123199872"/>
+        <c:crossAx val="124174720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4857,7 +4897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123199872"/>
+        <c:axId val="124174720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4868,7 +4908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123189888"/>
+        <c:crossAx val="124168832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5343,11 +5383,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="120184832"/>
-        <c:axId val="120186368"/>
+        <c:axId val="119525376"/>
+        <c:axId val="119526912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120184832"/>
+        <c:axId val="119525376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5356,7 +5396,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120186368"/>
+        <c:crossAx val="119526912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5364,7 +5404,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120186368"/>
+        <c:axId val="119526912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -5377,7 +5417,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120184832"/>
+        <c:crossAx val="119525376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5834,11 +5874,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123515648"/>
-        <c:axId val="123517184"/>
+        <c:axId val="124490496"/>
+        <c:axId val="124492032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123515648"/>
+        <c:axId val="124490496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5847,7 +5887,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123517184"/>
+        <c:crossAx val="124492032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5855,7 +5895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123517184"/>
+        <c:axId val="124492032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5866,7 +5906,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123515648"/>
+        <c:crossAx val="124490496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6323,11 +6363,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123812480"/>
-        <c:axId val="123814272"/>
+        <c:axId val="124267136"/>
+        <c:axId val="124268928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123812480"/>
+        <c:axId val="124267136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6336,7 +6376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123814272"/>
+        <c:crossAx val="124268928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6344,7 +6384,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123814272"/>
+        <c:axId val="124268928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6355,7 +6395,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123812480"/>
+        <c:crossAx val="124267136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6812,11 +6852,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123859712"/>
-        <c:axId val="123861248"/>
+        <c:axId val="124314368"/>
+        <c:axId val="124315904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123859712"/>
+        <c:axId val="124314368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6825,7 +6865,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123861248"/>
+        <c:crossAx val="124315904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6833,7 +6873,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123861248"/>
+        <c:axId val="124315904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6844,7 +6884,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123859712"/>
+        <c:crossAx val="124314368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7301,11 +7341,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123624064"/>
-        <c:axId val="123638144"/>
+        <c:axId val="124340864"/>
+        <c:axId val="124359040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123624064"/>
+        <c:axId val="124340864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7314,7 +7354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123638144"/>
+        <c:crossAx val="124359040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7322,7 +7362,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123638144"/>
+        <c:axId val="124359040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7333,7 +7373,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123624064"/>
+        <c:crossAx val="124340864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7790,11 +7830,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123679488"/>
-        <c:axId val="123681024"/>
+        <c:axId val="124404480"/>
+        <c:axId val="124406016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123679488"/>
+        <c:axId val="124404480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7803,7 +7843,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123681024"/>
+        <c:crossAx val="124406016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7811,7 +7851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123681024"/>
+        <c:axId val="124406016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7822,7 +7862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123679488"/>
+        <c:crossAx val="124404480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7964,11 +8004,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="120260864"/>
-        <c:axId val="120291328"/>
+        <c:axId val="120465664"/>
+        <c:axId val="124432384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120260864"/>
+        <c:axId val="120465664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7978,7 +8018,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120291328"/>
+        <c:crossAx val="124432384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7988,7 +8028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120291328"/>
+        <c:axId val="124432384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -8001,7 +8041,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120260864"/>
+        <c:crossAx val="120465664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8458,11 +8498,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124594816"/>
-        <c:axId val="124596608"/>
+        <c:axId val="125573760"/>
+        <c:axId val="125575552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124594816"/>
+        <c:axId val="125573760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8471,7 +8511,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124596608"/>
+        <c:crossAx val="125575552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8479,7 +8519,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124596608"/>
+        <c:axId val="125575552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8490,7 +8530,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124594816"/>
+        <c:crossAx val="125573760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8691,11 +8731,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124620800"/>
-        <c:axId val="124623488"/>
+        <c:axId val="125599744"/>
+        <c:axId val="125602432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124620800"/>
+        <c:axId val="125599744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8704,7 +8744,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124623488"/>
+        <c:crossAx val="125602432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8712,7 +8752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124623488"/>
+        <c:axId val="125602432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8723,7 +8763,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124620800"/>
+        <c:crossAx val="125599744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8868,11 +8908,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126251776"/>
-        <c:axId val="126253312"/>
+        <c:axId val="126132992"/>
+        <c:axId val="126134528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126251776"/>
+        <c:axId val="126132992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8881,7 +8921,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126253312"/>
+        <c:crossAx val="126134528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8889,7 +8929,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126253312"/>
+        <c:axId val="126134528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8900,7 +8940,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126251776"/>
+        <c:crossAx val="126132992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8998,11 +9038,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128233472"/>
-        <c:axId val="128235008"/>
+        <c:axId val="126574592"/>
+        <c:axId val="126576128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128233472"/>
+        <c:axId val="126574592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9011,7 +9051,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128235008"/>
+        <c:crossAx val="126576128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9019,7 +9059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128235008"/>
+        <c:axId val="126576128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9030,7 +9070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128233472"/>
+        <c:crossAx val="126574592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9505,11 +9545,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121153792"/>
-        <c:axId val="121155584"/>
+        <c:axId val="120957184"/>
+        <c:axId val="120958976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121153792"/>
+        <c:axId val="120957184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9518,7 +9558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121155584"/>
+        <c:crossAx val="120958976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9526,7 +9566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121155584"/>
+        <c:axId val="120958976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -9539,7 +9579,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121153792"/>
+        <c:crossAx val="120957184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9764,11 +9804,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128072320"/>
-        <c:axId val="128078208"/>
+        <c:axId val="126384768"/>
+        <c:axId val="126448000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128072320"/>
+        <c:axId val="126384768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9777,7 +9817,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128078208"/>
+        <c:crossAx val="126448000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9785,7 +9825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128078208"/>
+        <c:axId val="126448000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9796,7 +9836,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128072320"/>
+        <c:crossAx val="126384768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9947,11 +9987,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128094976"/>
-        <c:axId val="128096512"/>
+        <c:axId val="126472960"/>
+        <c:axId val="126474496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128094976"/>
+        <c:axId val="126472960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9960,7 +10000,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128096512"/>
+        <c:crossAx val="126474496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9968,7 +10008,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128096512"/>
+        <c:axId val="126474496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9979,7 +10019,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128094976"/>
+        <c:crossAx val="126472960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10091,11 +10131,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128202624"/>
-        <c:axId val="128204160"/>
+        <c:axId val="127158144"/>
+        <c:axId val="127159680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128202624"/>
+        <c:axId val="127158144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10104,7 +10144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128204160"/>
+        <c:crossAx val="127159680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10112,7 +10152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128204160"/>
+        <c:axId val="127159680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10123,7 +10163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128202624"/>
+        <c:crossAx val="127158144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10324,11 +10364,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128575360"/>
-        <c:axId val="128576896"/>
+        <c:axId val="127203200"/>
+        <c:axId val="127204736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128575360"/>
+        <c:axId val="127203200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10337,7 +10377,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128576896"/>
+        <c:crossAx val="127204736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10345,7 +10385,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128576896"/>
+        <c:axId val="127204736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10356,7 +10396,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128575360"/>
+        <c:crossAx val="127203200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10523,11 +10563,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128733184"/>
-        <c:axId val="128734720"/>
+        <c:axId val="127102976"/>
+        <c:axId val="127104512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128733184"/>
+        <c:axId val="127102976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10536,7 +10576,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128734720"/>
+        <c:crossAx val="127104512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10544,7 +10584,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128734720"/>
+        <c:axId val="127104512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10555,7 +10595,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128733184"/>
+        <c:crossAx val="127102976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10722,11 +10762,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128759680"/>
-        <c:axId val="128761216"/>
+        <c:axId val="127137664"/>
+        <c:axId val="127139200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128759680"/>
+        <c:axId val="127137664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10735,7 +10775,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128761216"/>
+        <c:crossAx val="127139200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10743,7 +10783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128761216"/>
+        <c:axId val="127139200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10754,7 +10794,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128759680"/>
+        <c:crossAx val="127137664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10921,11 +10961,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128856064"/>
-        <c:axId val="128857600"/>
+        <c:axId val="127299584"/>
+        <c:axId val="127301120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128856064"/>
+        <c:axId val="127299584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10934,7 +10974,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128857600"/>
+        <c:crossAx val="127301120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10942,7 +10982,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128857600"/>
+        <c:axId val="127301120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10953,7 +10993,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128856064"/>
+        <c:crossAx val="127299584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11120,11 +11160,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128886656"/>
-        <c:axId val="128888192"/>
+        <c:axId val="127330176"/>
+        <c:axId val="127331712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128886656"/>
+        <c:axId val="127330176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11133,7 +11173,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128888192"/>
+        <c:crossAx val="127331712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11141,7 +11181,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128888192"/>
+        <c:axId val="127331712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11152,7 +11192,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128886656"/>
+        <c:crossAx val="127330176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11319,11 +11359,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="129183744"/>
-        <c:axId val="129185280"/>
+        <c:axId val="131821568"/>
+        <c:axId val="131823104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129183744"/>
+        <c:axId val="131821568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11332,7 +11372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129185280"/>
+        <c:crossAx val="131823104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11340,7 +11380,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129185280"/>
+        <c:axId val="131823104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11351,7 +11391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129183744"/>
+        <c:crossAx val="131821568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11518,11 +11558,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="129206144"/>
-        <c:axId val="129207680"/>
+        <c:axId val="131848064"/>
+        <c:axId val="131849600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="129206144"/>
+        <c:axId val="131848064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11531,7 +11571,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129207680"/>
+        <c:crossAx val="131849600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11539,7 +11579,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129207680"/>
+        <c:axId val="131849600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11550,7 +11590,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129206144"/>
+        <c:crossAx val="131848064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12025,11 +12065,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121803904"/>
-        <c:axId val="121805440"/>
+        <c:axId val="122008704"/>
+        <c:axId val="122010240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121803904"/>
+        <c:axId val="122008704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12038,7 +12078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121805440"/>
+        <c:crossAx val="122010240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12046,7 +12086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121805440"/>
+        <c:axId val="122010240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -12059,7 +12099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121803904"/>
+        <c:crossAx val="122008704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12534,11 +12574,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121889920"/>
-        <c:axId val="121891456"/>
+        <c:axId val="122076544"/>
+        <c:axId val="122090624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121889920"/>
+        <c:axId val="122076544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12547,7 +12587,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121891456"/>
+        <c:crossAx val="122090624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12555,7 +12595,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121891456"/>
+        <c:axId val="122090624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -12568,7 +12608,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121889920"/>
+        <c:crossAx val="122076544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13043,11 +13083,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121946112"/>
-        <c:axId val="121947648"/>
+        <c:axId val="122132352"/>
+        <c:axId val="122133888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121946112"/>
+        <c:axId val="122132352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13056,7 +13096,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121947648"/>
+        <c:crossAx val="122133888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13064,7 +13104,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121947648"/>
+        <c:axId val="122133888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -13077,7 +13117,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121946112"/>
+        <c:crossAx val="122132352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13552,11 +13592,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121555200"/>
-        <c:axId val="121556992"/>
+        <c:axId val="121741696"/>
+        <c:axId val="121743232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121555200"/>
+        <c:axId val="121741696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13565,7 +13605,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121556992"/>
+        <c:crossAx val="121743232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13573,7 +13613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121556992"/>
+        <c:axId val="121743232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -13586,7 +13626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121555200"/>
+        <c:crossAx val="121741696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14061,11 +14101,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121610624"/>
-        <c:axId val="121612160"/>
+        <c:axId val="121805056"/>
+        <c:axId val="121810944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121610624"/>
+        <c:axId val="121805056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14074,7 +14114,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121612160"/>
+        <c:crossAx val="121810944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14082,7 +14122,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121612160"/>
+        <c:axId val="121810944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -14095,7 +14135,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121610624"/>
+        <c:crossAx val="121805056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14204,11 +14244,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="121621888"/>
-        <c:axId val="121652352"/>
+        <c:axId val="121826688"/>
+        <c:axId val="121844864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="121621888"/>
+        <c:axId val="121826688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14217,7 +14257,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121652352"/>
+        <c:crossAx val="121844864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14225,7 +14265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121652352"/>
+        <c:axId val="121844864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14236,7 +14276,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121621888"/>
+        <c:crossAx val="121826688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14578,39 +14618,39 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp171.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="C60" horiz="1" max="100" page="10" val="40"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="C55" horiz="1" max="100" page="10" val="100"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp172.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$I$67" horiz="1" max="100" page="10" val="50"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp173.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$I$102" horiz="1" max="100" page="10" val="50"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp174.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$E$5" horiz="1" inc="10" max="5000" page="10" val="10"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp173.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp175.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$F$5" horiz="1" inc="10" max="5000" page="10" val="220"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp174.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp176.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$E$6" horiz="1" inc="10" max="5000" page="10" val="50"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp175.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp177.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$E$7" horiz="1" inc="10" max="5000" page="10" val="140"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp176.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp178.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$E$8" horiz="1" inc="10" max="5000" page="10" val="40"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp177.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp179.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$E$9" horiz="1" inc="10" max="5000" page="10" val="80"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp178.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$E$10" horiz="1" inc="10" max="5000" page="10" val="60"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp179.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$E$11" horiz="1" inc="10" max="5000" page="10" val="90"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14618,43 +14658,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp180.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$E$10" horiz="1" inc="10" max="5000" page="10" val="60"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp181.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$E$11" horiz="1" inc="10" max="5000" page="10" val="90"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp182.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$E$12" horiz="1" inc="10" max="5000" page="10" val="120"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp181.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp183.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$E$13" horiz="1" inc="10" max="5000" page="10" val="30"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp182.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp184.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$F$6" horiz="1" inc="10" max="5000" page="10" val="440"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp183.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp185.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$F$7" horiz="1" inc="10" max="5000" page="10" val="690"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp184.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp186.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$F$8" horiz="1" inc="10" max="5000" page="10" val="720"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp185.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp187.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$F$9" horiz="1" inc="10" max="5000" page="10" val="520"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp186.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp188.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$F$10" horiz="1" inc="10" max="5000" page="10" val="540"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp187.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp189.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$F$11" horiz="1" inc="10" max="5000" page="10" val="570"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp188.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$F$12" horiz="1" inc="10" max="5000" page="10" val="650"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp189.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$F$13" horiz="1" inc="10" max="5000" page="10" val="330"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14662,43 +14702,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp190.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$F$12" horiz="1" inc="10" max="5000" page="10" val="650"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp191.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$F$13" horiz="1" inc="10" max="5000" page="10" val="330"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp192.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$E$14" horiz="1" inc="10" max="5000" page="10" val="20"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp191.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp193.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$F$14" horiz="1" inc="10" max="5000" page="10" val="290"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp192.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp194.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$E$15" horiz="1" inc="10" max="5000" page="10" val="90"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp193.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp195.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$E$16" horiz="1" inc="10" max="5000" page="10" val="100"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp194.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp196.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$E$17" horiz="1" inc="10" max="5000" page="10" val="150"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp195.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp197.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$F$15" horiz="1" inc="10" max="5000" page="10" val="590"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp196.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp198.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$F$16" horiz="1" inc="10" max="5000" page="10" val="750"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp197.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp199.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$F$17" horiz="1" inc="10" max="5000" page="10" val="730"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp198.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$D$2" horiz="1" max="100" page="10" val="50"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp199.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$D$3" horiz="1" max="2000" page="10" val="1200"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14710,43 +14750,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp200.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$D$2" horiz="1" max="100" page="10" val="50"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp201.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$D$3" horiz="1" max="2000" page="10" val="1200"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp202.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$C$8" horiz="1" max="100" page="10" val="100"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp201.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp203.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$C$7" horiz="1" max="100" page="10" val="80"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp202.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp204.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$D$2" horiz="1" max="100" page="10" val="50"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp203.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp205.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$D$3" horiz="1" max="2000" page="10" val="1200"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp204.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp206.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$C$8" horiz="1" max="100" page="10" val="100"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp205.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp207.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$C$7" horiz="1" max="100" page="10" val="80"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp206.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp208.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$B$3" horiz="1" max="1000" page="10" val="14"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp207.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp209.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$D$3" horiz="1" max="1000" page="10" val="10"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp208.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$E$3" horiz="1" max="1000" page="10" val="100"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp209.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$C$3" horiz="1" max="1000" page="10" val="200"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14754,43 +14794,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp210.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$E$3" horiz="1" max="1000" page="10" val="100"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp211.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$C$3" horiz="1" max="1000" page="10" val="200"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp212.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$D$32" horiz="1" max="500" page="10" val="100"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp211.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp213.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$E$32" horiz="1" max="1000" page="10" val="100"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp212.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp214.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$F$32" horiz="1" max="500" page="10" val="0"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp213.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp215.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$G$32" horiz="1" max="500" page="10" val="0"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp214.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp216.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$D$46" horiz="1" max="500" page="10" val="10"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp215.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp217.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$E$46" horiz="1" max="1000" page="10" val="200"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp216.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp218.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$F$46" horiz="1" max="500" page="10" val="0"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp217.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp219.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$G$46" horiz="1" max="2000" page="10" val="1700"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp218.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$I$45" horiz="1" max="100" page="10"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp219.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$J$45" horiz="1" max="100" page="10" val="100"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14798,43 +14838,43 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp220.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$I$45" horiz="1" max="100" page="10"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp221.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$J$45" horiz="1" max="100" page="10" val="100"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp222.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$C$60" horiz="1" max="100" page="10"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp221.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp223.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$D$60" horiz="1" max="100" page="10" val="100"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp222.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp224.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$E$60" horiz="1" max="100" page="10"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp223.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp225.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$F$60" horiz="1" max="100" page="10" val="50"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp224.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp226.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$D$2" horiz="1" max="100" page="10" val="50"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp225.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp227.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$D$3" horiz="1" max="2000" page="10" val="1200"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp226.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp228.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$C$8" horiz="1" max="100" page="10" val="100"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp227.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp229.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$C$23" horiz="1" max="100" page="10" val="50"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp228.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$C$37" horiz="1" max="100" page="10" val="50"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp229.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$C$51" horiz="1" max="100" page="10" val="50"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14842,47 +14882,55 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp230.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$C$37" horiz="1" max="100" page="10" val="50"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp231.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$C$51" horiz="1" max="100" page="10" val="50"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp232.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$C$65" horiz="1" max="100" page="10" val="50"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp231.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp233.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$C$79" horiz="1" max="100" page="10" val="50"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp232.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp234.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$C$93" horiz="1" max="100" page="10" val="40"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp233.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp235.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$C$94" horiz="1" max="100" page="10" val="50"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp234.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp236.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$C$95" horiz="1" max="100" page="10" val="100"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp235.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp237.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$C$96" horiz="1" max="100" page="10"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp236.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp238.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$C$98" horiz="1" max="100" page="10" val="50"/>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp237.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ctrlProps/ctrlProp239.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$C$97" horiz="1" max="100" page="10" val="50"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp238.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$C$99" horiz="1" max="100" page="10" val="12"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp239.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$C$7" horiz="1" max="100" page="10" val="80"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$H$39" horiz="1" max="100" page="10" val="0"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp240.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$C$99" horiz="1" max="100" page="10" val="12"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp241.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$C$7" horiz="1" max="100" page="10" val="80"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25592,13 +25640,13 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>59</xdr:row>
+          <xdr:row>54</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>60</xdr:row>
+          <xdr:row>55</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -25607,6 +25655,88 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s47105"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>66</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>67</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="47106" name="Scroll Bar 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s47106"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>101</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>102</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="47107" name="Scroll Bar 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s47107"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -37363,7 +37493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A13:N243"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="J180" sqref="J180"/>
     </sheetView>
   </sheetViews>
@@ -46512,7 +46642,7 @@
   <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52852,9 +52982,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V326"/>
+  <dimension ref="A2:Y326"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="U57" sqref="U57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -53596,7 +53728,7 @@
         <v>6179.1666666666661</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>202</v>
       </c>
@@ -53618,7 +53750,7 @@
         <v>5711.1111111111122</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>226</v>
       </c>
@@ -53641,8 +53773,17 @@
       <c r="S18" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V18" t="s">
+        <v>131</v>
+      </c>
+      <c r="W18" t="s">
+        <v>131</v>
+      </c>
+      <c r="X18" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="Q19">
         <f>ROUND(AVERAGE(Q21:Q44), -1)</f>
         <v>5320</v>
@@ -53655,8 +53796,20 @@
         <f>ROUND(AVERAGE(S21:S44), -1)</f>
         <v>700</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V19">
+        <f>ROUND(AVERAGE(V21:V44), -1)</f>
+        <v>7030</v>
+      </c>
+      <c r="W19">
+        <f>ROUND(AVERAGE(W21:W44), 1)</f>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="X19">
+        <f>ROUND(V19/W19, -1)</f>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>203</v>
       </c>
@@ -53682,8 +53835,11 @@
       <c r="T20" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V20" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>204</v>
       </c>
@@ -53724,8 +53880,14 @@
         <f t="shared" ref="U21:U44" si="4">S$19-S21</f>
         <v>-50</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V21">
+        <v>7360</v>
+      </c>
+      <c r="W21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>205</v>
       </c>
@@ -53775,8 +53937,14 @@
         <f t="shared" si="4"/>
         <v>210</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22">
+        <v>7260</v>
+      </c>
+      <c r="W22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G23" s="6" t="s">
         <v>211</v>
       </c>
@@ -53816,8 +53984,14 @@
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V23">
+        <v>5890</v>
+      </c>
+      <c r="W23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>206</v>
       </c>
@@ -53863,8 +54037,14 @@
         <f t="shared" si="4"/>
         <v>-380</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V24">
+        <v>5960</v>
+      </c>
+      <c r="W24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>207</v>
       </c>
@@ -53892,8 +54072,14 @@
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V25">
+        <v>7360</v>
+      </c>
+      <c r="W25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="P26">
@@ -53916,14 +54102,20 @@
         <f t="shared" si="4"/>
         <v>-50</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V26">
+        <v>8060</v>
+      </c>
+      <c r="W26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>361</v>
       </c>
       <c r="B27">
-        <f>ROUND(30/I12, 0)</f>
-        <v>4</v>
+        <f>ROUND(30/R19, 1)</f>
+        <v>3.8</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -53948,14 +54140,20 @@
         <f t="shared" si="4"/>
         <v>-90</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V27">
+        <v>8060</v>
+      </c>
+      <c r="W27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>370</v>
       </c>
       <c r="B28">
-        <f>ROUND(B27*L12, -2)</f>
-        <v>22200</v>
+        <f>ROUND(B27*Q19, -2)</f>
+        <v>20200</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -53980,8 +54178,14 @@
         <f t="shared" si="4"/>
         <v>-120</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V28">
+        <v>9260</v>
+      </c>
+      <c r="W28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="J29" s="11"/>
@@ -54005,8 +54209,14 @@
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V29">
+        <v>5390</v>
+      </c>
+      <c r="W29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>213</v>
       </c>
@@ -54065,8 +54275,14 @@
         <f t="shared" si="4"/>
         <v>-130</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V30">
+        <v>6160</v>
+      </c>
+      <c r="W30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>216</v>
       </c>
@@ -54092,28 +54308,28 @@
       </c>
       <c r="G31" s="13">
         <f t="shared" ref="G31:G38" ca="1" si="7">RANDBETWEEN(R4,S4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" s="13">
         <f t="shared" ref="H31:H38" ca="1" si="8">RANDBETWEEN(T4,U4)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I31" s="13">
         <f ca="1">ROUND(B31/H31, 0)</f>
-        <v>332</v>
+        <v>427</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="17">
         <f ca="1">RAND()</f>
-        <v>0.87412128155228153</v>
+        <v>8.6601722815696225E-2</v>
       </c>
       <c r="L31" s="18">
         <f ca="1">RAND()</f>
-        <v>0.13936294235164848</v>
+        <v>0.6107217820552433</v>
       </c>
       <c r="M31" s="18">
         <f ca="1">MAX(K31:K32)</f>
-        <v>0.87412128155228153</v>
+        <v>0.8584489638284527</v>
       </c>
       <c r="O31" s="13"/>
       <c r="P31">
@@ -54136,30 +54352,36 @@
         <f t="shared" si="4"/>
         <v>-50</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V31">
+        <v>5090</v>
+      </c>
+      <c r="W31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>219</v>
       </c>
       <c r="B32" s="5">
         <f t="shared" ref="B32:B37" ca="1" si="9">SUM(C32,E32)</f>
-        <v>2790</v>
+        <v>4960</v>
       </c>
       <c r="C32" s="13">
         <f ca="1">ROUND(RANDBETWEEN(C15,D15), -2)</f>
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" s="5">
         <f t="shared" ref="E32:E38" ca="1" si="10">IF(D32=1,$B$20,IF(D32=2,$B$21,$B$22))</f>
-        <v>1990</v>
+        <v>4060</v>
       </c>
       <c r="F32" s="13">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G32" s="13">
         <f t="shared" ca="1" si="7"/>
@@ -54171,16 +54393,16 @@
       </c>
       <c r="I32" s="13">
         <f t="shared" ref="I32:I38" ca="1" si="11">ROUND(B32/H32, 0)</f>
-        <v>399</v>
+        <v>709</v>
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="17">
         <f t="shared" ref="K32:L38" ca="1" si="12">RAND()</f>
-        <v>0.77424518776710283</v>
+        <v>0.8584489638284527</v>
       </c>
       <c r="L32" s="18">
         <f t="shared" ca="1" si="12"/>
-        <v>0.89599766377990597</v>
+        <v>0.75203329367956329</v>
       </c>
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
@@ -54205,18 +54427,24 @@
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V32">
+        <v>5690</v>
+      </c>
+      <c r="W32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>217</v>
       </c>
       <c r="B33" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>3050</v>
+        <v>2850</v>
       </c>
       <c r="C33" s="13">
         <f ca="1">ROUND(RANDBETWEEN(C16,D16), -2)</f>
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="5"/>
@@ -54228,32 +54456,32 @@
       </c>
       <c r="F33" s="13">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G33" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="13">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I33" s="13">
         <f t="shared" ca="1" si="11"/>
-        <v>763</v>
+        <v>570</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="17">
         <f t="shared" ca="1" si="12"/>
-        <v>0.97531143748885341</v>
+        <v>0.48118199895561076</v>
       </c>
       <c r="L33" s="18">
         <f t="shared" ca="1" si="12"/>
-        <v>0.73625243421839592</v>
+        <v>0.37683676528307342</v>
       </c>
       <c r="M33" s="18">
         <f ca="1">MAX(K33:K34)</f>
-        <v>0.97531143748885341</v>
+        <v>0.48118199895561076</v>
       </c>
       <c r="N33" s="18"/>
       <c r="O33" s="13"/>
@@ -54277,30 +54505,36 @@
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V33">
+        <v>7390</v>
+      </c>
+      <c r="W33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>221</v>
       </c>
       <c r="B34" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>2950</v>
+        <v>3790</v>
       </c>
       <c r="C34" s="13">
         <f ca="1">ROUND(RANDBETWEEN(C16,D16), -2)</f>
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>950</v>
+        <v>1990</v>
       </c>
       <c r="F34" s="13">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34" s="13">
         <f t="shared" ca="1" si="7"/>
@@ -54308,16 +54542,16 @@
       </c>
       <c r="H34" s="13">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I34" s="13">
         <f t="shared" ca="1" si="11"/>
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="17">
         <f t="shared" ca="1" si="12"/>
-        <v>9.5559787848943922E-2</v>
+        <v>0.12234954700694822</v>
       </c>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
@@ -54343,34 +54577,40 @@
         <f t="shared" si="4"/>
         <v>130</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V34">
+        <v>7860</v>
+      </c>
+      <c r="W34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>221</v>
       </c>
       <c r="B35" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>4990</v>
+        <v>7160</v>
       </c>
       <c r="C35" s="13">
         <f ca="1">ROUND(RANDBETWEEN(C17,D17), -2)</f>
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>1990</v>
+        <v>4060</v>
       </c>
       <c r="F35" s="13">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35" s="13">
         <f t="shared" ca="1" si="8"/>
@@ -54378,17 +54618,17 @@
       </c>
       <c r="I35" s="13">
         <f t="shared" ca="1" si="11"/>
-        <v>554</v>
+        <v>796</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="17">
         <f t="shared" ca="1" si="12"/>
-        <v>0.47908902943158183</v>
+        <v>0.30493767805381478</v>
       </c>
       <c r="L35" s="18"/>
       <c r="M35" s="18">
         <f ca="1">MAX(K35:K36)</f>
-        <v>0.70541340939599062</v>
+        <v>0.96242785676087539</v>
       </c>
       <c r="N35" s="18"/>
       <c r="O35" s="13"/>
@@ -54412,18 +54652,24 @@
         <f t="shared" si="4"/>
         <v>-20</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V35">
+        <v>7860</v>
+      </c>
+      <c r="W35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>218</v>
       </c>
       <c r="B36" s="5">
         <f ca="1">SUM(C36,E36)</f>
-        <v>8060</v>
+        <v>7160</v>
       </c>
       <c r="C36" s="13">
         <f ca="1">ROUND(RANDBETWEEN(C17,D17), -2)</f>
-        <v>4000</v>
+        <v>3100</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="5"/>
@@ -54439,24 +54685,24 @@
       </c>
       <c r="G36" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" s="13">
         <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I36" s="13">
         <f t="shared" ca="1" si="11"/>
-        <v>733</v>
+        <v>597</v>
       </c>
       <c r="J36" s="13"/>
       <c r="K36" s="17">
         <f t="shared" ca="1" si="12"/>
-        <v>0.70541340939599062</v>
+        <v>0.96242785676087539</v>
       </c>
       <c r="L36" s="18">
         <f t="shared" ca="1" si="12"/>
-        <v>0.62447698826119669</v>
+        <v>0.18771287276415982</v>
       </c>
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
@@ -54481,18 +54727,24 @@
         <f t="shared" si="4"/>
         <v>-170</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V36">
+        <v>4960</v>
+      </c>
+      <c r="W36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>222</v>
       </c>
       <c r="B37" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>7290</v>
+        <v>6990</v>
       </c>
       <c r="C37" s="13">
         <f ca="1">ROUND(RANDBETWEEN(C18,D18), -2)</f>
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="5"/>
@@ -54512,24 +54764,24 @@
       </c>
       <c r="H37" s="13">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I37" s="13">
         <f t="shared" ca="1" si="11"/>
-        <v>810</v>
+        <v>635</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="17">
         <f t="shared" ca="1" si="12"/>
-        <v>0.5983133557995518</v>
+        <v>7.8345490745083346E-2</v>
       </c>
       <c r="L37" s="18">
         <f t="shared" ca="1" si="12"/>
-        <v>0.42351650128308127</v>
+        <v>0.63671213567603568</v>
       </c>
       <c r="M37" s="18">
         <f ca="1">MAX(L31:L38)</f>
-        <v>0.89599766377990597</v>
+        <v>0.77968766647944021</v>
       </c>
       <c r="N37" s="18"/>
       <c r="O37" s="13"/>
@@ -54553,18 +54805,24 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V37">
+        <v>7960</v>
+      </c>
+      <c r="W37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>220</v>
       </c>
       <c r="B38" s="5">
         <f ca="1">SUM(C38,E38)</f>
-        <v>9260</v>
+        <v>9060</v>
       </c>
       <c r="C38" s="13">
         <f ca="1">ROUND(RANDBETWEEN(C18,D18), -2)</f>
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="5"/>
@@ -54580,24 +54838,24 @@
       </c>
       <c r="G38" s="13">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="13">
         <f t="shared" ca="1" si="8"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I38" s="13">
         <f t="shared" ca="1" si="11"/>
-        <v>661</v>
+        <v>697</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="17">
         <f t="shared" ca="1" si="12"/>
-        <v>0.73288094763088729</v>
+        <v>0.69846546740559212</v>
       </c>
       <c r="L38" s="18">
         <f t="shared" ca="1" si="12"/>
-        <v>0.46084359565169597</v>
+        <v>0.77968766647944021</v>
       </c>
       <c r="M38" s="18"/>
       <c r="N38" s="18"/>
@@ -54622,8 +54880,14 @@
         <f t="shared" si="4"/>
         <v>-70</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V38">
+        <v>5590</v>
+      </c>
+      <c r="W38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -54660,8 +54924,14 @@
         <f t="shared" si="4"/>
         <v>-160</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V39">
+        <v>5260</v>
+      </c>
+      <c r="W39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C40" s="11"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -54693,8 +54963,14 @@
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V40">
+        <v>9360</v>
+      </c>
+      <c r="W40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>373</v>
       </c>
@@ -54742,43 +55018,49 @@
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V41">
+        <v>7760</v>
+      </c>
+      <c r="W41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M$31, $K$31:$K$38, 0),1)</f>
-        <v>Retrieve Cargo</v>
+        <v>Derelict Vessel</v>
       </c>
       <c r="B42">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M31, $K$31:$K$38, 0),2)</f>
-        <v>2990</v>
+        <v>4960</v>
       </c>
       <c r="C42">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M31, $K$31:$K$38, 0),3)</f>
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="D42">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M31, $K$31:$K$38, 0),4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M31, $K$31:$K$38, 0),5)</f>
-        <v>1990</v>
+        <v>4060</v>
       </c>
       <c r="F42">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M31, $K$31:$K$38, 0),6)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M31, $K$31:$K$38, 0),7)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M31, $K$31:$K$38, 0),8)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I42">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M31, $K$31:$K$38, 0),9)</f>
-        <v>332</v>
+        <v>709</v>
       </c>
       <c r="P42">
         <v>22</v>
@@ -54800,8 +55082,14 @@
         <f t="shared" si="4"/>
         <v>-10</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V42">
+        <v>7960</v>
+      </c>
+      <c r="W42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>374</v>
       </c>
@@ -54825,19 +55113,25 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V43">
+        <v>7460</v>
+      </c>
+      <c r="W43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M33, $K$31:$K$38, 0),1)</f>
         <v>Retrieve Data</v>
       </c>
       <c r="B44">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M33, $K$31:$K$38, 0),2)</f>
-        <v>3050</v>
+        <v>2850</v>
       </c>
       <c r="C44">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M33, $K$31:$K$38, 0),3)</f>
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="D44">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M33, $K$31:$K$38, 0),4)</f>
@@ -54849,19 +55143,19 @@
       </c>
       <c r="F44">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M33, $K$31:$K$38, 0),6)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M33, $K$31:$K$38, 0),7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M33, $K$31:$K$38, 0),8)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I44">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M33, $K$31:$K$38, 0),9)</f>
-        <v>763</v>
+        <v>570</v>
       </c>
       <c r="P44">
         <v>24</v>
@@ -54883,26 +55177,32 @@
         <f t="shared" si="4"/>
         <v>130</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V44">
+        <v>7760</v>
+      </c>
+      <c r="W44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>375</v>
       </c>
       <c r="Q45" s="13"/>
       <c r="R45" s="13"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M35, $K$31:$K$38, 0),1)</f>
         <v>Retrieve Prototype</v>
       </c>
       <c r="B46">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M35, $K$31:$K$38, 0),2)</f>
-        <v>8060</v>
+        <v>7160</v>
       </c>
       <c r="C46">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M35, $K$31:$K$38, 0),3)</f>
-        <v>4000</v>
+        <v>3100</v>
       </c>
       <c r="D46">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M35, $K$31:$K$38, 0),4)</f>
@@ -54918,15 +55218,15 @@
       </c>
       <c r="G46">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M35, $K$31:$K$38, 0),7)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M35, $K$31:$K$38, 0),8)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I46">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M35, $K$31:$K$38, 0),9)</f>
-        <v>733</v>
+        <v>597</v>
       </c>
       <c r="S46" t="s">
         <v>403</v>
@@ -54939,8 +55239,12 @@
         <f>MAX(U21:U44)</f>
         <v>210</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V46">
+        <f>MAX(V21:V44)</f>
+        <v>9360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>376</v>
       </c>
@@ -54955,31 +55259,35 @@
         <f>MIN(U21:U44)</f>
         <v>-380</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V47">
+        <f>MIN(V21:V44)</f>
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M37, $L$31:$L$38, 0),1)</f>
-        <v>Derelict Vessel</v>
+        <v>Cleaning Mission</v>
       </c>
       <c r="B48">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M37, $L$31:$L$38, 0),2)</f>
-        <v>2790</v>
+        <v>9060</v>
       </c>
       <c r="C48">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M37, $L$31:$L$38, 0),3)</f>
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="D48">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M37, $L$31:$L$38, 0),4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M37, $L$31:$L$38, 0),5)</f>
-        <v>1990</v>
+        <v>4060</v>
       </c>
       <c r="F48">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M37, $L$31:$L$38, 0),6)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G48">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M37, $L$31:$L$38, 0),7)</f>
@@ -54987,11 +55295,11 @@
       </c>
       <c r="H48">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M37, $L$31:$L$38, 0),8)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I48">
         <f ca="1">INDEX($A$31:$L$38, MATCH($M37, $L$31:$L$38, 0),9)</f>
-        <v>399</v>
+        <v>697</v>
       </c>
       <c r="S48" t="s">
         <v>405</v>
@@ -55006,6 +55314,9 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M49" t="s">
+        <v>412</v>
+      </c>
       <c r="S49" t="s">
         <v>405</v>
       </c>
@@ -55024,19 +55335,22 @@
       </c>
       <c r="B50">
         <f ca="1">ROUND(AVERAGE(B42:B48), -1)</f>
-        <v>4220</v>
+        <v>6010</v>
       </c>
       <c r="G50">
         <f ca="1">ROUND(AVERAGE(B42:B48), -1)</f>
-        <v>4220</v>
+        <v>6010</v>
       </c>
       <c r="H50">
         <f ca="1">AVERAGE(H42:H48)</f>
-        <v>7.75</v>
+        <v>9.25</v>
       </c>
       <c r="I50">
         <f ca="1">ROUND(AVERAGE(I42:I48), -1)</f>
-        <v>560</v>
+        <v>640</v>
+      </c>
+      <c r="M50" s="5">
+        <v>100000</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
@@ -55045,7 +55359,10 @@
       </c>
       <c r="B51">
         <f ca="1">MIN(B42:B48)</f>
-        <v>2790</v>
+        <v>2850</v>
+      </c>
+      <c r="M51" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
@@ -55054,7 +55371,14 @@
       </c>
       <c r="B52" s="13">
         <f ca="1">MAX(B42:B48)</f>
-        <v>8060</v>
+        <v>9060</v>
+      </c>
+      <c r="C52">
+        <f ca="1">VLOOKUP(MAX(B42:B48), B42:I48, 7, FALSE)</f>
+        <v>13</v>
+      </c>
+      <c r="M52" s="19">
+        <v>0.05</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
@@ -55068,899 +55392,1952 @@
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
       <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
+      <c r="M53" t="s">
+        <v>414</v>
+      </c>
       <c r="O53" s="13"/>
     </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M54" t="s">
+        <v>415</v>
+      </c>
+    </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
+      <c r="A55" t="s">
+        <v>368</v>
+      </c>
+      <c r="B55" s="11">
+        <f>C55*1000</f>
+        <v>100000</v>
+      </c>
+      <c r="C55" s="11">
+        <v>100</v>
+      </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
       <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C56" s="11"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="R56" s="4"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>369</v>
+      </c>
+      <c r="C57" t="s">
+        <v>372</v>
+      </c>
+      <c r="E57" t="s">
+        <v>359</v>
+      </c>
+      <c r="F57" t="s">
+        <v>362</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="M57" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="N57" s="13"/>
+      <c r="O57" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="P57" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q57" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="R57" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>364</v>
+      </c>
+      <c r="B58" s="5">
+        <f>H58+M58+R58-C58</f>
+        <v>20000</v>
+      </c>
+      <c r="C58">
+        <v>20000</v>
+      </c>
+      <c r="E58" s="5">
+        <f>B55</f>
+        <v>100000</v>
+      </c>
+      <c r="F58" s="5">
+        <v>10000</v>
+      </c>
+      <c r="G58" s="13">
+        <f>E58*0.2</f>
+        <v>20000</v>
+      </c>
+      <c r="H58" s="5">
+        <f>SUM(F58:G58)</f>
+        <v>30000</v>
+      </c>
+      <c r="I58" s="13"/>
+      <c r="J58" s="5">
+        <v>20000</v>
+      </c>
+      <c r="K58" s="13">
+        <v>5000</v>
+      </c>
+      <c r="L58" s="13">
+        <f>0.25*J58</f>
+        <v>5000</v>
+      </c>
+      <c r="M58" s="13">
+        <f>SUM(K58:L58)</f>
+        <v>10000</v>
+      </c>
+      <c r="N58" s="13"/>
+      <c r="O58" s="5">
+        <v>0</v>
+      </c>
+      <c r="P58" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="13">
+        <v>0</v>
+      </c>
+      <c r="R58" s="13">
+        <f>SUM(P58:Q58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>365</v>
+      </c>
+      <c r="B59" s="5">
+        <f>H59+M59+R59-C59</f>
+        <v>32250</v>
+      </c>
+      <c r="C59">
+        <v>10000</v>
+      </c>
+      <c r="E59" s="5">
+        <f>E58-F58</f>
+        <v>90000</v>
+      </c>
+      <c r="F59" s="5">
+        <v>10000</v>
+      </c>
+      <c r="G59" s="13">
+        <f t="shared" ref="G59:G61" si="13">E59*0.2</f>
+        <v>18000</v>
+      </c>
+      <c r="H59" s="5">
+        <f t="shared" ref="H59:H60" si="14">SUM(F59:G59)</f>
+        <v>28000</v>
+      </c>
+      <c r="I59" s="13"/>
+      <c r="J59" s="5">
+        <f>J58-K58</f>
+        <v>15000</v>
+      </c>
+      <c r="K59" s="13">
+        <v>5000</v>
+      </c>
+      <c r="L59" s="13">
+        <f t="shared" ref="L59:L62" si="15">0.25*J59</f>
+        <v>3750</v>
+      </c>
+      <c r="M59" s="13">
+        <f t="shared" ref="M59:M62" si="16">SUM(K59:L59)</f>
+        <v>8750</v>
+      </c>
+      <c r="N59" s="13"/>
+      <c r="O59" s="5">
+        <v>10000</v>
+      </c>
+      <c r="P59" s="13">
+        <v>2500</v>
+      </c>
+      <c r="Q59" s="13">
+        <f>0.3*O59</f>
+        <v>3000</v>
+      </c>
+      <c r="R59" s="13">
+        <f t="shared" ref="R59:R62" si="17">SUM(P59:Q59)</f>
+        <v>5500</v>
+      </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>368</v>
-      </c>
-      <c r="B60" s="11">
-        <f>C60*1000</f>
-        <v>40000</v>
-      </c>
-      <c r="C60" s="11">
-        <v>40</v>
-      </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="13"/>
+        <v>366</v>
+      </c>
+      <c r="B60" s="5">
+        <f t="shared" ref="B60:B62" si="18">H60+M60+R60-C60</f>
+        <v>38250</v>
+      </c>
+      <c r="E60" s="5">
+        <f>E59-F59</f>
+        <v>80000</v>
+      </c>
+      <c r="F60" s="5">
+        <v>10000</v>
+      </c>
+      <c r="G60" s="13">
+        <f t="shared" si="13"/>
+        <v>16000</v>
+      </c>
+      <c r="H60" s="5">
+        <f t="shared" si="14"/>
+        <v>26000</v>
+      </c>
       <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
+      <c r="J60" s="5">
+        <f t="shared" ref="J60:J62" si="19">J59-K59</f>
+        <v>10000</v>
+      </c>
+      <c r="K60" s="13">
+        <v>5000</v>
+      </c>
+      <c r="L60" s="13">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+      <c r="M60" s="13">
+        <f t="shared" si="16"/>
+        <v>7500</v>
+      </c>
+      <c r="N60" s="13"/>
+      <c r="O60" s="5">
+        <f t="shared" ref="O60:O62" si="20">O59-P59</f>
+        <v>7500</v>
+      </c>
+      <c r="P60" s="13">
+        <v>2500</v>
+      </c>
+      <c r="Q60" s="13">
+        <f t="shared" ref="Q60:Q62" si="21">0.3*O60</f>
+        <v>2250</v>
+      </c>
+      <c r="R60" s="13">
+        <f t="shared" si="17"/>
+        <v>4750</v>
+      </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C61" s="11"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="13"/>
+      <c r="A61" t="s">
+        <v>367</v>
+      </c>
+      <c r="B61" s="5">
+        <f t="shared" si="18"/>
+        <v>34250</v>
+      </c>
+      <c r="E61" s="5">
+        <f>E60-F60</f>
+        <v>70000</v>
+      </c>
+      <c r="F61" s="5">
+        <v>10000</v>
+      </c>
+      <c r="G61" s="13">
+        <f t="shared" si="13"/>
+        <v>14000</v>
+      </c>
+      <c r="H61" s="5">
+        <f t="shared" ref="H61" si="22">SUM(F61:G61)</f>
+        <v>24000</v>
+      </c>
       <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="R61" s="4"/>
+      <c r="J61" s="5">
+        <f t="shared" si="19"/>
+        <v>5000</v>
+      </c>
+      <c r="K61" s="13">
+        <v>5000</v>
+      </c>
+      <c r="L61" s="13">
+        <f t="shared" si="15"/>
+        <v>1250</v>
+      </c>
+      <c r="M61" s="13">
+        <f t="shared" si="16"/>
+        <v>6250</v>
+      </c>
+      <c r="N61" s="13"/>
+      <c r="O61" s="5">
+        <f t="shared" si="20"/>
+        <v>5000</v>
+      </c>
+      <c r="P61" s="13">
+        <v>2500</v>
+      </c>
+      <c r="Q61" s="13">
+        <f t="shared" si="21"/>
+        <v>1500</v>
+      </c>
+      <c r="R61" s="13">
+        <f t="shared" si="17"/>
+        <v>4000</v>
+      </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>369</v>
-      </c>
-      <c r="C62" t="s">
-        <v>372</v>
-      </c>
-      <c r="E62" t="s">
-        <v>359</v>
-      </c>
-      <c r="F62" t="s">
-        <v>362</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="H62" s="13" t="s">
-        <v>139</v>
+      <c r="A62" t="s">
+        <v>371</v>
+      </c>
+      <c r="B62" s="5">
+        <f t="shared" si="18"/>
+        <v>15250</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="E62" s="5">
+        <f>E61-F61</f>
+        <v>60000</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0</v>
+      </c>
+      <c r="G62" s="13">
+        <f t="shared" ref="G62" si="23">E62*0.2</f>
+        <v>12000</v>
+      </c>
+      <c r="H62" s="5">
+        <f t="shared" ref="H62" si="24">SUM(F62:G62)</f>
+        <v>12000</v>
       </c>
       <c r="I62" s="13"/>
-      <c r="J62" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="K62" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="L62" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="M62" s="13" t="s">
-        <v>139</v>
+      <c r="J62" s="5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="13">
+        <v>0</v>
+      </c>
+      <c r="L62" s="13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="13">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="N62" s="13"/>
-      <c r="O62" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="P62" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q62" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="R62" s="13" t="s">
-        <v>139</v>
+      <c r="O62" s="5">
+        <f t="shared" si="20"/>
+        <v>2500</v>
+      </c>
+      <c r="P62" s="13">
+        <v>2500</v>
+      </c>
+      <c r="Q62" s="13">
+        <f t="shared" si="21"/>
+        <v>750</v>
+      </c>
+      <c r="R62" s="13">
+        <f t="shared" si="17"/>
+        <v>3250</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>364</v>
-      </c>
-      <c r="B63" s="5">
-        <f>H63+M63+R63-C63</f>
-        <v>8000</v>
-      </c>
-      <c r="C63">
-        <v>20000</v>
-      </c>
-      <c r="E63" s="5">
-        <f>B60</f>
-        <v>40000</v>
-      </c>
-      <c r="F63" s="5">
-        <v>10000</v>
-      </c>
-      <c r="G63" s="13">
-        <f>E63*0.2</f>
-        <v>8000</v>
-      </c>
-      <c r="H63" s="5">
-        <f>SUM(F63:G63)</f>
-        <v>18000</v>
-      </c>
+      <c r="C63" s="11"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
       <c r="I63" s="13"/>
-      <c r="J63" s="5">
-        <v>20000</v>
-      </c>
-      <c r="K63" s="13">
-        <v>5000</v>
-      </c>
-      <c r="L63" s="13">
-        <f>0.25*J63</f>
-        <v>5000</v>
-      </c>
-      <c r="M63" s="13">
-        <f>SUM(K63:L63)</f>
-        <v>10000</v>
-      </c>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
       <c r="N63" s="13"/>
       <c r="O63" s="5">
+        <f t="shared" ref="O63" si="25">O62-P62</f>
         <v>0</v>
       </c>
       <c r="P63" s="13">
         <v>0</v>
       </c>
       <c r="Q63" s="13">
+        <f t="shared" ref="Q63" si="26">0.25*O63</f>
         <v>0</v>
       </c>
       <c r="R63" s="13">
-        <f>SUM(P63:Q63)</f>
+        <f t="shared" ref="R63" si="27">SUM(P63:Q63)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>365</v>
-      </c>
-      <c r="B64" s="5">
-        <f>H64+M64+R64-C64</f>
-        <v>20250</v>
-      </c>
-      <c r="C64">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>417</v>
+      </c>
+      <c r="H65" t="s">
+        <v>410</v>
+      </c>
+      <c r="I65" t="s">
+        <v>416</v>
+      </c>
+      <c r="J65" t="s">
+        <v>164</v>
+      </c>
+      <c r="M65" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G66" s="5">
+        <v>100000</v>
+      </c>
+      <c r="H66">
+        <v>0.05</v>
+      </c>
+      <c r="I66">
+        <f>I67/1000</f>
+        <v>0.05</v>
+      </c>
+      <c r="J66" s="5">
+        <f>SUM(H69:H95)</f>
+        <v>100000</v>
+      </c>
+      <c r="M66" s="5">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>409</v>
+      </c>
+      <c r="B68" t="s">
+        <v>369</v>
+      </c>
+      <c r="C68" t="s">
+        <v>411</v>
+      </c>
+      <c r="D68" t="s">
+        <v>418</v>
+      </c>
+      <c r="F68" t="s">
+        <v>409</v>
+      </c>
+      <c r="G68" t="s">
+        <v>359</v>
+      </c>
+      <c r="H68" t="s">
+        <v>362</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L68" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="M68" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="N68" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="O68" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="P68" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="S68" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="T68" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="U68" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" s="5">
+        <f t="shared" ref="B69:B77" si="28">J69+P69+U69</f>
+        <v>15000</v>
+      </c>
+      <c r="C69" s="5">
+        <f>$B$28-B69+D69</f>
+        <v>5200</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" s="5">
+        <f>G66</f>
+        <v>100000</v>
+      </c>
+      <c r="H69" s="5">
+        <f>IF(G69 &gt; 0, $G$66*0.05, 0)</f>
+        <v>5000</v>
+      </c>
+      <c r="I69" s="13">
+        <f>G69*($H$66+(A69*$I$66))</f>
         <v>10000</v>
       </c>
-      <c r="E64" s="5">
-        <f>E63-F63</f>
+      <c r="J69" s="5">
+        <f>SUM(H69:I69)</f>
+        <v>15000</v>
+      </c>
+      <c r="L69" s="13"/>
+      <c r="M69" s="5">
+        <v>0</v>
+      </c>
+      <c r="N69" s="5">
+        <f t="shared" ref="N69:N94" si="29">IF(M69 &gt; 0, $M$66*0.05, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O69" s="13">
+        <f t="shared" ref="O69:O94" si="30">M69*($H$66+L69*$I$66)</f>
+        <v>0</v>
+      </c>
+      <c r="P69" s="13">
+        <f>SUM(N69:O69)</f>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="5">
+        <v>0</v>
+      </c>
+      <c r="S69" s="13">
+        <v>0</v>
+      </c>
+      <c r="T69" s="13">
+        <v>0</v>
+      </c>
+      <c r="U69" s="13">
+        <f>SUM(S69:T69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70" s="5">
+        <f t="shared" si="28"/>
+        <v>19250</v>
+      </c>
+      <c r="C70" s="5">
+        <f>$B$28-B70+D70+C69</f>
+        <v>6150</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70" s="5">
+        <f t="shared" ref="G70:G77" si="31">G69-H69</f>
+        <v>95000</v>
+      </c>
+      <c r="H70" s="5">
+        <f t="shared" ref="H70:H94" si="32">IF(G70 &gt; 0, $G$69*0.05, 0)</f>
+        <v>5000</v>
+      </c>
+      <c r="I70" s="13">
+        <f t="shared" ref="I70:I94" si="33">G70*($H$66+(A70*$I$66))</f>
+        <v>14250.000000000002</v>
+      </c>
+      <c r="J70" s="5">
+        <f t="shared" ref="J70:J73" si="34">SUM(H70:I70)</f>
+        <v>19250</v>
+      </c>
+      <c r="L70" s="13"/>
+      <c r="M70" s="5">
+        <f>M69-N69</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="13">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="13">
+        <f t="shared" ref="P70:P73" si="35">SUM(N70:O70)</f>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="5">
+        <v>0</v>
+      </c>
+      <c r="S70" s="13">
+        <v>0</v>
+      </c>
+      <c r="T70" s="13">
+        <f>0.3*R70</f>
+        <v>0</v>
+      </c>
+      <c r="U70" s="13">
+        <f t="shared" ref="U70:U74" si="36">SUM(S70:T70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71" s="5">
+        <f t="shared" si="28"/>
+        <v>23000</v>
+      </c>
+      <c r="C71" s="5">
+        <f t="shared" ref="C71:C94" si="37">$B$28-B71+D71+C70</f>
+        <v>3350</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71" s="5">
+        <f t="shared" si="31"/>
+        <v>90000</v>
+      </c>
+      <c r="H71" s="5">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="I71" s="13">
+        <f t="shared" si="33"/>
+        <v>18000</v>
+      </c>
+      <c r="J71" s="5">
+        <f t="shared" si="34"/>
+        <v>23000</v>
+      </c>
+      <c r="L71" s="13"/>
+      <c r="M71" s="5">
+        <f t="shared" ref="M71" si="38">M70-N70</f>
+        <v>0</v>
+      </c>
+      <c r="N71" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O71" s="13">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="13">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="5">
+        <v>0</v>
+      </c>
+      <c r="S71" s="13">
+        <v>0</v>
+      </c>
+      <c r="T71" s="13">
+        <f t="shared" ref="T71:T73" si="39">0.3*R71</f>
+        <v>0</v>
+      </c>
+      <c r="U71" s="13">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72" s="5">
+        <f t="shared" si="28"/>
+        <v>33750</v>
+      </c>
+      <c r="C72" s="5">
+        <f>$B$28-B72+D72+C71</f>
+        <v>39800</v>
+      </c>
+      <c r="D72" s="5">
+        <v>50000</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+      <c r="G72" s="5">
+        <f t="shared" si="31"/>
+        <v>85000</v>
+      </c>
+      <c r="H72" s="5">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="I72" s="13">
+        <f t="shared" si="33"/>
+        <v>21250</v>
+      </c>
+      <c r="J72" s="5">
+        <f t="shared" si="34"/>
+        <v>26250</v>
+      </c>
+      <c r="L72" s="13">
+        <v>1</v>
+      </c>
+      <c r="M72" s="5">
+        <v>50000</v>
+      </c>
+      <c r="N72" s="5">
+        <f t="shared" si="29"/>
+        <v>2500</v>
+      </c>
+      <c r="O72" s="13">
+        <f t="shared" si="30"/>
+        <v>5000</v>
+      </c>
+      <c r="P72" s="13">
+        <f t="shared" si="35"/>
+        <v>7500</v>
+      </c>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="5">
+        <v>0</v>
+      </c>
+      <c r="S72" s="13">
+        <v>0</v>
+      </c>
+      <c r="T72" s="13">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="U72" s="13">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73" s="5">
+        <f t="shared" si="28"/>
+        <v>38625</v>
+      </c>
+      <c r="C73" s="5">
+        <f>$B$28-B73+D73+C72</f>
+        <v>21375</v>
+      </c>
+      <c r="F73">
+        <v>5</v>
+      </c>
+      <c r="G73" s="5">
+        <f t="shared" si="31"/>
+        <v>80000</v>
+      </c>
+      <c r="H73" s="5">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="I73" s="13">
+        <f t="shared" si="33"/>
+        <v>24000</v>
+      </c>
+      <c r="J73" s="5">
+        <f t="shared" si="34"/>
+        <v>29000</v>
+      </c>
+      <c r="L73" s="13">
+        <v>2</v>
+      </c>
+      <c r="M73" s="5">
+        <f>M72-N72</f>
+        <v>47500</v>
+      </c>
+      <c r="N73" s="5">
+        <f t="shared" si="29"/>
+        <v>2500</v>
+      </c>
+      <c r="O73" s="13">
+        <f t="shared" si="30"/>
+        <v>7125.0000000000009</v>
+      </c>
+      <c r="P73" s="13">
+        <f t="shared" si="35"/>
+        <v>9625</v>
+      </c>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="5">
+        <v>0</v>
+      </c>
+      <c r="S73" s="13">
+        <v>0</v>
+      </c>
+      <c r="T73" s="13">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="U73" s="13">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="B74" s="5">
+        <f t="shared" si="28"/>
+        <v>42750</v>
+      </c>
+      <c r="C74" s="5">
+        <f>$B$28-B74+D74+C73</f>
+        <v>-1175</v>
+      </c>
+      <c r="F74">
+        <v>6</v>
+      </c>
+      <c r="G74" s="5">
+        <f t="shared" si="31"/>
+        <v>75000</v>
+      </c>
+      <c r="H74" s="5">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="I74" s="13">
+        <f t="shared" si="33"/>
+        <v>26250.000000000004</v>
+      </c>
+      <c r="J74" s="5">
+        <f t="shared" ref="J74" si="40">SUM(H74:I74)</f>
+        <v>31250.000000000004</v>
+      </c>
+      <c r="L74" s="13">
+        <v>3</v>
+      </c>
+      <c r="M74" s="5">
+        <f t="shared" ref="M74:M78" si="41">M73-N73</f>
+        <v>45000</v>
+      </c>
+      <c r="N74" s="5">
+        <f t="shared" si="29"/>
+        <v>2500</v>
+      </c>
+      <c r="O74" s="13">
+        <f t="shared" si="30"/>
+        <v>9000</v>
+      </c>
+      <c r="P74" s="13">
+        <f t="shared" ref="P74:P78" si="42">SUM(N74:O74)</f>
+        <v>11500</v>
+      </c>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="5">
+        <v>0</v>
+      </c>
+      <c r="S74" s="13">
+        <v>0</v>
+      </c>
+      <c r="T74" s="13">
+        <f t="shared" ref="T74" si="43">0.25*R74</f>
+        <v>0</v>
+      </c>
+      <c r="U74" s="13">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>7</v>
+      </c>
+      <c r="B75" s="5">
+        <f t="shared" si="28"/>
+        <v>46125</v>
+      </c>
+      <c r="C75" s="5">
+        <f t="shared" si="37"/>
+        <v>-27100</v>
+      </c>
+      <c r="F75">
+        <v>7</v>
+      </c>
+      <c r="G75" s="5">
+        <f t="shared" si="31"/>
+        <v>70000</v>
+      </c>
+      <c r="H75" s="5">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="I75" s="13">
+        <f t="shared" si="33"/>
+        <v>28000</v>
+      </c>
+      <c r="J75" s="5">
+        <f>SUM(H75:I75)</f>
+        <v>33000</v>
+      </c>
+      <c r="L75" s="13">
+        <v>4</v>
+      </c>
+      <c r="M75" s="5">
+        <f t="shared" si="41"/>
+        <v>42500</v>
+      </c>
+      <c r="N75" s="5">
+        <f t="shared" si="29"/>
+        <v>2500</v>
+      </c>
+      <c r="O75" s="13">
+        <f t="shared" si="30"/>
+        <v>10625</v>
+      </c>
+      <c r="P75" s="13">
+        <f t="shared" si="42"/>
+        <v>13125</v>
+      </c>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>8</v>
+      </c>
+      <c r="B76" s="5">
+        <f t="shared" si="28"/>
+        <v>48750</v>
+      </c>
+      <c r="C76" s="5">
+        <f t="shared" si="37"/>
+        <v>-55650</v>
+      </c>
+      <c r="F76">
+        <v>8</v>
+      </c>
+      <c r="G76" s="5">
+        <f t="shared" si="31"/>
+        <v>65000</v>
+      </c>
+      <c r="H76" s="5">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="I76" s="13">
+        <f t="shared" si="33"/>
+        <v>29250</v>
+      </c>
+      <c r="J76" s="5">
+        <f t="shared" ref="J76:J77" si="44">SUM(H76:I76)</f>
+        <v>34250</v>
+      </c>
+      <c r="L76" s="13">
+        <v>5</v>
+      </c>
+      <c r="M76" s="5">
+        <f t="shared" si="41"/>
+        <v>40000</v>
+      </c>
+      <c r="N76" s="5">
+        <f t="shared" si="29"/>
+        <v>2500</v>
+      </c>
+      <c r="O76" s="13">
+        <f t="shared" si="30"/>
+        <v>12000</v>
+      </c>
+      <c r="P76" s="13">
+        <f t="shared" si="42"/>
+        <v>14500</v>
+      </c>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
+      <c r="T76" s="13"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>9</v>
+      </c>
+      <c r="B77" s="5">
+        <f t="shared" si="28"/>
+        <v>50625</v>
+      </c>
+      <c r="C77" s="5">
+        <f t="shared" si="37"/>
+        <v>-86075</v>
+      </c>
+      <c r="F77">
+        <v>9</v>
+      </c>
+      <c r="G77" s="5">
+        <f t="shared" si="31"/>
+        <v>60000</v>
+      </c>
+      <c r="H77" s="5">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="I77" s="13">
+        <f>G77*($H$66+(A77*$I$66))</f>
         <v>30000</v>
       </c>
-      <c r="F64" s="5">
+      <c r="J77" s="5">
+        <f t="shared" si="44"/>
+        <v>35000</v>
+      </c>
+      <c r="L77" s="13">
+        <v>6</v>
+      </c>
+      <c r="M77" s="5">
+        <f t="shared" si="41"/>
+        <v>37500</v>
+      </c>
+      <c r="N77" s="5">
+        <f t="shared" si="29"/>
+        <v>2500</v>
+      </c>
+      <c r="O77" s="13">
+        <f t="shared" si="30"/>
+        <v>13125.000000000002</v>
+      </c>
+      <c r="P77" s="13">
+        <f t="shared" si="42"/>
+        <v>15625.000000000002</v>
+      </c>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
+      <c r="T77" s="13"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>10</v>
+      </c>
+      <c r="B78" s="5">
+        <f t="shared" ref="B78:B94" si="45">J78+N78+S78</f>
+        <v>37750</v>
+      </c>
+      <c r="C78" s="5">
+        <f t="shared" si="37"/>
+        <v>-103625</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78" s="5">
+        <f t="shared" ref="G78:G85" si="46">G77-H77</f>
+        <v>55000</v>
+      </c>
+      <c r="H78" s="5">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="I78" s="13">
+        <f t="shared" si="33"/>
+        <v>30250.000000000004</v>
+      </c>
+      <c r="J78" s="5">
+        <f t="shared" ref="J78:J85" si="47">SUM(H78:I78)</f>
+        <v>35250</v>
+      </c>
+      <c r="L78" s="13">
+        <v>7</v>
+      </c>
+      <c r="M78" s="5">
+        <f t="shared" si="41"/>
+        <v>35000</v>
+      </c>
+      <c r="N78" s="5">
+        <f t="shared" si="29"/>
+        <v>2500</v>
+      </c>
+      <c r="O78" s="13">
+        <f t="shared" si="30"/>
+        <v>14000</v>
+      </c>
+      <c r="P78" s="13">
+        <f t="shared" si="42"/>
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>11</v>
+      </c>
+      <c r="B79" s="5">
+        <f t="shared" si="45"/>
+        <v>37500</v>
+      </c>
+      <c r="C79" s="5">
+        <f t="shared" si="37"/>
+        <v>-120925</v>
+      </c>
+      <c r="F79">
+        <v>11</v>
+      </c>
+      <c r="G79" s="5">
+        <f t="shared" si="46"/>
+        <v>50000</v>
+      </c>
+      <c r="H79" s="5">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="I79" s="13">
+        <f t="shared" si="33"/>
+        <v>30000.000000000004</v>
+      </c>
+      <c r="J79" s="5">
+        <f t="shared" si="47"/>
+        <v>35000</v>
+      </c>
+      <c r="L79" s="13">
+        <v>8</v>
+      </c>
+      <c r="M79" s="5">
+        <f t="shared" ref="M79:M89" si="48">M78-N78</f>
+        <v>32500</v>
+      </c>
+      <c r="N79" s="5">
+        <f t="shared" si="29"/>
+        <v>2500</v>
+      </c>
+      <c r="O79" s="13">
+        <f t="shared" si="30"/>
+        <v>14625</v>
+      </c>
+      <c r="P79" s="13">
+        <f t="shared" ref="P79:P89" si="49">SUM(N79:O79)</f>
+        <v>17125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>12</v>
+      </c>
+      <c r="B80" s="5">
+        <f t="shared" si="45"/>
+        <v>36750.000000000007</v>
+      </c>
+      <c r="C80" s="5">
+        <f t="shared" si="37"/>
+        <v>-137475</v>
+      </c>
+      <c r="F80">
+        <v>12</v>
+      </c>
+      <c r="G80" s="5">
+        <f t="shared" si="46"/>
+        <v>45000</v>
+      </c>
+      <c r="H80" s="5">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="I80" s="13">
+        <f t="shared" si="33"/>
+        <v>29250.000000000007</v>
+      </c>
+      <c r="J80" s="5">
+        <f>SUM(H80:I80)</f>
+        <v>34250.000000000007</v>
+      </c>
+      <c r="L80" s="13">
+        <v>9</v>
+      </c>
+      <c r="M80" s="5">
+        <f t="shared" si="48"/>
+        <v>30000</v>
+      </c>
+      <c r="N80" s="5">
+        <f t="shared" si="29"/>
+        <v>2500</v>
+      </c>
+      <c r="O80" s="13">
+        <f t="shared" si="30"/>
+        <v>15000</v>
+      </c>
+      <c r="P80" s="13">
+        <f t="shared" si="49"/>
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>13</v>
+      </c>
+      <c r="B81" s="5">
+        <f t="shared" si="45"/>
+        <v>35500</v>
+      </c>
+      <c r="C81" s="5">
+        <f t="shared" si="37"/>
+        <v>-152775</v>
+      </c>
+      <c r="F81">
+        <v>13</v>
+      </c>
+      <c r="G81" s="5">
+        <f t="shared" si="46"/>
+        <v>40000</v>
+      </c>
+      <c r="H81" s="5">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="I81" s="13">
+        <f t="shared" si="33"/>
+        <v>28000.000000000004</v>
+      </c>
+      <c r="J81" s="5">
+        <f t="shared" si="47"/>
+        <v>33000</v>
+      </c>
+      <c r="L81" s="13">
+        <v>10</v>
+      </c>
+      <c r="M81" s="5">
+        <f t="shared" si="48"/>
+        <v>27500</v>
+      </c>
+      <c r="N81" s="5">
+        <f t="shared" si="29"/>
+        <v>2500</v>
+      </c>
+      <c r="O81" s="13">
+        <f t="shared" si="30"/>
+        <v>15125.000000000002</v>
+      </c>
+      <c r="P81" s="13">
+        <f t="shared" si="49"/>
+        <v>17625</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>14</v>
+      </c>
+      <c r="B82" s="5">
+        <f t="shared" si="45"/>
+        <v>33750</v>
+      </c>
+      <c r="C82" s="5">
+        <f t="shared" si="37"/>
+        <v>-166325</v>
+      </c>
+      <c r="F82">
+        <v>14</v>
+      </c>
+      <c r="G82" s="5">
+        <f t="shared" si="46"/>
+        <v>35000</v>
+      </c>
+      <c r="H82" s="5">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="I82" s="13">
+        <f t="shared" si="33"/>
+        <v>26250.000000000004</v>
+      </c>
+      <c r="J82" s="5">
+        <f t="shared" si="47"/>
+        <v>31250.000000000004</v>
+      </c>
+      <c r="L82" s="13">
+        <v>11</v>
+      </c>
+      <c r="M82" s="5">
+        <f t="shared" si="48"/>
+        <v>25000</v>
+      </c>
+      <c r="N82" s="5">
+        <f t="shared" si="29"/>
+        <v>2500</v>
+      </c>
+      <c r="O82" s="13">
+        <f t="shared" si="30"/>
+        <v>15000.000000000002</v>
+      </c>
+      <c r="P82" s="13">
+        <f t="shared" si="49"/>
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>15</v>
+      </c>
+      <c r="B83" s="5">
+        <f t="shared" si="45"/>
+        <v>31500</v>
+      </c>
+      <c r="C83" s="5">
+        <f t="shared" si="37"/>
+        <v>-177625</v>
+      </c>
+      <c r="F83">
+        <v>15</v>
+      </c>
+      <c r="G83" s="5">
+        <f t="shared" si="46"/>
+        <v>30000</v>
+      </c>
+      <c r="H83" s="5">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="I83" s="13">
+        <f t="shared" si="33"/>
+        <v>24000</v>
+      </c>
+      <c r="J83" s="5">
+        <f t="shared" si="47"/>
+        <v>29000</v>
+      </c>
+      <c r="L83" s="13">
+        <v>12</v>
+      </c>
+      <c r="M83" s="5">
+        <f t="shared" si="48"/>
+        <v>22500</v>
+      </c>
+      <c r="N83" s="5">
+        <f t="shared" si="29"/>
+        <v>2500</v>
+      </c>
+      <c r="O83" s="13">
+        <f t="shared" si="30"/>
+        <v>14625.000000000004</v>
+      </c>
+      <c r="P83" s="13">
+        <f t="shared" si="49"/>
+        <v>17125.000000000004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>16</v>
+      </c>
+      <c r="B84" s="5">
+        <f t="shared" si="45"/>
+        <v>28750.000000000004</v>
+      </c>
+      <c r="C84" s="5">
+        <f t="shared" si="37"/>
+        <v>-186175</v>
+      </c>
+      <c r="F84">
+        <v>16</v>
+      </c>
+      <c r="G84" s="5">
+        <f t="shared" si="46"/>
+        <v>25000</v>
+      </c>
+      <c r="H84" s="5">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="I84" s="13">
+        <f t="shared" si="33"/>
+        <v>21250.000000000004</v>
+      </c>
+      <c r="J84" s="5">
+        <f t="shared" si="47"/>
+        <v>26250.000000000004</v>
+      </c>
+      <c r="L84" s="13">
+        <v>13</v>
+      </c>
+      <c r="M84" s="5">
+        <f t="shared" si="48"/>
+        <v>20000</v>
+      </c>
+      <c r="N84" s="5">
+        <f t="shared" si="29"/>
+        <v>2500</v>
+      </c>
+      <c r="O84" s="13">
+        <f t="shared" si="30"/>
+        <v>14000.000000000002</v>
+      </c>
+      <c r="P84" s="13">
+        <f t="shared" si="49"/>
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>17</v>
+      </c>
+      <c r="B85" s="5">
+        <f t="shared" si="45"/>
+        <v>25500.000000000004</v>
+      </c>
+      <c r="C85" s="5">
+        <f t="shared" si="37"/>
+        <v>-191475</v>
+      </c>
+      <c r="F85">
+        <v>17</v>
+      </c>
+      <c r="G85" s="5">
+        <f t="shared" si="46"/>
+        <v>20000</v>
+      </c>
+      <c r="H85" s="5">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="I85" s="13">
+        <f t="shared" si="33"/>
+        <v>18000.000000000004</v>
+      </c>
+      <c r="J85" s="5">
+        <f t="shared" si="47"/>
+        <v>23000.000000000004</v>
+      </c>
+      <c r="L85" s="13">
+        <v>14</v>
+      </c>
+      <c r="M85" s="5">
+        <f t="shared" si="48"/>
+        <v>17500</v>
+      </c>
+      <c r="N85" s="5">
+        <f t="shared" si="29"/>
+        <v>2500</v>
+      </c>
+      <c r="O85" s="13">
+        <f t="shared" si="30"/>
+        <v>13125.000000000002</v>
+      </c>
+      <c r="P85" s="13">
+        <f t="shared" si="49"/>
+        <v>15625.000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>18</v>
+      </c>
+      <c r="B86" s="5">
+        <f t="shared" si="45"/>
+        <v>21750</v>
+      </c>
+      <c r="C86" s="5">
+        <f t="shared" si="37"/>
+        <v>-193025</v>
+      </c>
+      <c r="F86">
+        <v>18</v>
+      </c>
+      <c r="G86" s="5">
+        <f>G85-H85</f>
+        <v>15000</v>
+      </c>
+      <c r="H86" s="5">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="I86" s="13">
+        <f t="shared" si="33"/>
+        <v>14250.000000000002</v>
+      </c>
+      <c r="J86" s="5">
+        <f>SUM(H86:I86)</f>
+        <v>19250</v>
+      </c>
+      <c r="L86" s="13">
+        <v>15</v>
+      </c>
+      <c r="M86" s="5">
+        <f t="shared" si="48"/>
+        <v>15000</v>
+      </c>
+      <c r="N86" s="5">
+        <f t="shared" si="29"/>
+        <v>2500</v>
+      </c>
+      <c r="O86" s="13">
+        <f t="shared" si="30"/>
+        <v>12000</v>
+      </c>
+      <c r="P86" s="13">
+        <f t="shared" si="49"/>
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>19</v>
+      </c>
+      <c r="B87" s="5">
+        <f t="shared" si="45"/>
+        <v>17500</v>
+      </c>
+      <c r="C87" s="5">
+        <f t="shared" si="37"/>
+        <v>-190325</v>
+      </c>
+      <c r="F87">
+        <v>19</v>
+      </c>
+      <c r="G87" s="5">
+        <f>G86-H86</f>
         <v>10000</v>
       </c>
-      <c r="G64" s="13">
-        <f t="shared" ref="G64:G66" si="13">E64*0.2</f>
-        <v>6000</v>
-      </c>
-      <c r="H64" s="5">
-        <f t="shared" ref="H64:H65" si="14">SUM(F64:G64)</f>
-        <v>16000</v>
-      </c>
-      <c r="I64" s="13"/>
-      <c r="J64" s="5">
-        <f>J63-K63</f>
+      <c r="H87" s="5">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="I87" s="13">
+        <f t="shared" si="33"/>
+        <v>10000</v>
+      </c>
+      <c r="J87" s="5">
+        <f>SUM(H87:I87)</f>
         <v>15000</v>
       </c>
-      <c r="K64" s="13">
+      <c r="K87" s="13"/>
+      <c r="L87" s="13">
+        <v>16</v>
+      </c>
+      <c r="M87" s="5">
+        <f t="shared" si="48"/>
+        <v>12500</v>
+      </c>
+      <c r="N87" s="5">
+        <f t="shared" si="29"/>
+        <v>2500</v>
+      </c>
+      <c r="O87" s="13">
+        <f t="shared" si="30"/>
+        <v>10625.000000000002</v>
+      </c>
+      <c r="P87" s="13">
+        <f t="shared" si="49"/>
+        <v>13125.000000000002</v>
+      </c>
+      <c r="Q87" s="13"/>
+      <c r="R87" s="13"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>20</v>
+      </c>
+      <c r="B88" s="5">
+        <f t="shared" si="45"/>
+        <v>12750</v>
+      </c>
+      <c r="C88" s="5">
+        <f t="shared" si="37"/>
+        <v>-182875</v>
+      </c>
+      <c r="F88">
+        <v>20</v>
+      </c>
+      <c r="G88" s="5">
+        <f>G87-H87</f>
         <v>5000</v>
       </c>
-      <c r="L64" s="13">
-        <f t="shared" ref="L64:L67" si="15">0.25*J64</f>
-        <v>3750</v>
-      </c>
-      <c r="M64" s="13">
-        <f t="shared" ref="M64:M67" si="16">SUM(K64:L64)</f>
-        <v>8750</v>
-      </c>
-      <c r="N64" s="13"/>
-      <c r="O64" s="5">
+      <c r="H88" s="5">
+        <f t="shared" si="32"/>
+        <v>5000</v>
+      </c>
+      <c r="I88" s="13">
+        <f t="shared" si="33"/>
+        <v>5250</v>
+      </c>
+      <c r="J88" s="5">
+        <f>SUM(H88:I88)</f>
+        <v>10250</v>
+      </c>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13">
+        <v>17</v>
+      </c>
+      <c r="M88" s="5">
+        <f t="shared" si="48"/>
         <v>10000</v>
       </c>
-      <c r="P64" s="13">
+      <c r="N88" s="5">
+        <f t="shared" si="29"/>
         <v>2500</v>
       </c>
-      <c r="Q64" s="13">
-        <f>0.3*O64</f>
-        <v>3000</v>
-      </c>
-      <c r="R64" s="13">
-        <f t="shared" ref="R64:R67" si="17">SUM(P64:Q64)</f>
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>366</v>
-      </c>
-      <c r="B65" s="5">
-        <f t="shared" ref="B65:B67" si="18">H65+M65+R65-C65</f>
-        <v>26250</v>
-      </c>
-      <c r="E65" s="5">
-        <f>E64-F64</f>
-        <v>20000</v>
-      </c>
-      <c r="F65" s="5">
-        <v>10000</v>
-      </c>
-      <c r="G65" s="13">
-        <f t="shared" si="13"/>
-        <v>4000</v>
-      </c>
-      <c r="H65" s="5">
-        <f t="shared" si="14"/>
-        <v>14000</v>
-      </c>
-      <c r="I65" s="13"/>
-      <c r="J65" s="5">
-        <f t="shared" ref="J65:J67" si="19">J64-K64</f>
-        <v>10000</v>
-      </c>
-      <c r="K65" s="13">
+      <c r="O88" s="13">
+        <f t="shared" si="30"/>
+        <v>9000.0000000000018</v>
+      </c>
+      <c r="P88" s="13">
+        <f t="shared" si="49"/>
+        <v>11500.000000000002</v>
+      </c>
+      <c r="Q88" s="13"/>
+      <c r="R88" s="13"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>21</v>
+      </c>
+      <c r="B89" s="5">
+        <f t="shared" si="45"/>
+        <v>2500</v>
+      </c>
+      <c r="C89" s="5">
+        <f t="shared" si="37"/>
+        <v>-165175</v>
+      </c>
+      <c r="F89">
+        <v>21</v>
+      </c>
+      <c r="G89" s="5">
+        <f>G88-H88</f>
+        <v>0</v>
+      </c>
+      <c r="H89" s="5">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I89" s="13">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="5">
+        <f>SUM(H89:I89)</f>
+        <v>0</v>
+      </c>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13">
+        <v>18</v>
+      </c>
+      <c r="M89" s="5">
+        <f t="shared" si="48"/>
+        <v>7500</v>
+      </c>
+      <c r="N89" s="5">
+        <f t="shared" si="29"/>
+        <v>2500</v>
+      </c>
+      <c r="O89" s="13">
+        <f t="shared" si="30"/>
+        <v>7125.0000000000009</v>
+      </c>
+      <c r="P89" s="13">
+        <f t="shared" si="49"/>
+        <v>9625</v>
+      </c>
+      <c r="Q89" s="13"/>
+      <c r="R89" s="13"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>22</v>
+      </c>
+      <c r="B90" s="5">
+        <f t="shared" si="45"/>
+        <v>2500</v>
+      </c>
+      <c r="C90" s="5">
+        <f t="shared" si="37"/>
+        <v>-147475</v>
+      </c>
+      <c r="F90">
+        <v>22</v>
+      </c>
+      <c r="G90" s="5">
+        <f t="shared" ref="G90" si="50">G89-H89</f>
+        <v>0</v>
+      </c>
+      <c r="H90" s="5">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I90" s="13">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="5">
+        <f t="shared" ref="J90" si="51">SUM(H90:I90)</f>
+        <v>0</v>
+      </c>
+      <c r="L90" s="13">
+        <v>19</v>
+      </c>
+      <c r="M90" s="5">
+        <f t="shared" ref="M90:M94" si="52">M89-N89</f>
         <v>5000</v>
       </c>
-      <c r="L65" s="13">
-        <f t="shared" si="15"/>
+      <c r="N90" s="5">
+        <f t="shared" si="29"/>
         <v>2500</v>
       </c>
-      <c r="M65" s="13">
-        <f t="shared" si="16"/>
+      <c r="O90" s="13">
+        <f t="shared" si="30"/>
+        <v>5000</v>
+      </c>
+      <c r="P90" s="13">
+        <f t="shared" ref="P90:P94" si="53">SUM(N90:O90)</f>
         <v>7500</v>
       </c>
-      <c r="N65" s="13"/>
-      <c r="O65" s="5">
-        <f t="shared" ref="O65:O67" si="20">O64-P64</f>
-        <v>7500</v>
-      </c>
-      <c r="P65" s="13">
+      <c r="Q90" s="13"/>
+      <c r="R90" s="13"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>23</v>
+      </c>
+      <c r="B91" s="5">
+        <f t="shared" si="45"/>
         <v>2500</v>
       </c>
-      <c r="Q65" s="13">
-        <f t="shared" ref="Q65:Q67" si="21">0.3*O65</f>
-        <v>2250</v>
-      </c>
-      <c r="R65" s="13">
-        <f t="shared" si="17"/>
-        <v>4750</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>367</v>
-      </c>
-      <c r="B66" s="5">
-        <f t="shared" si="18"/>
-        <v>22250</v>
-      </c>
-      <c r="E66" s="5">
-        <f>E65-F65</f>
-        <v>10000</v>
-      </c>
-      <c r="F66" s="5">
-        <v>10000</v>
-      </c>
-      <c r="G66" s="13">
-        <f t="shared" si="13"/>
-        <v>2000</v>
-      </c>
-      <c r="H66" s="5">
-        <f t="shared" ref="H66" si="22">SUM(F66:G66)</f>
-        <v>12000</v>
-      </c>
-      <c r="I66" s="13"/>
-      <c r="J66" s="5">
-        <f t="shared" si="19"/>
-        <v>5000</v>
-      </c>
-      <c r="K66" s="13">
-        <v>5000</v>
-      </c>
-      <c r="L66" s="13">
-        <f t="shared" si="15"/>
-        <v>1250</v>
-      </c>
-      <c r="M66" s="13">
-        <f t="shared" si="16"/>
-        <v>6250</v>
-      </c>
-      <c r="N66" s="13"/>
-      <c r="O66" s="5">
-        <f t="shared" si="20"/>
-        <v>5000</v>
-      </c>
-      <c r="P66" s="13">
+      <c r="C91" s="5">
+        <f t="shared" si="37"/>
+        <v>-129775</v>
+      </c>
+      <c r="F91">
+        <v>23</v>
+      </c>
+      <c r="G91" s="5">
+        <f>G90-H90</f>
+        <v>0</v>
+      </c>
+      <c r="H91" s="5">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I91" s="13">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="5">
+        <f>SUM(H91:I91)</f>
+        <v>0</v>
+      </c>
+      <c r="L91" s="13">
+        <v>20</v>
+      </c>
+      <c r="M91" s="5">
+        <f t="shared" si="52"/>
         <v>2500</v>
       </c>
-      <c r="Q66" s="13">
-        <f t="shared" si="21"/>
-        <v>1500</v>
-      </c>
-      <c r="R66" s="13">
-        <f t="shared" si="17"/>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>371</v>
-      </c>
-      <c r="B67" s="5">
-        <f t="shared" si="18"/>
-        <v>3250</v>
-      </c>
-      <c r="C67" s="11"/>
-      <c r="E67" s="5">
-        <f>E66-F66</f>
+      <c r="N91" s="5">
+        <f t="shared" si="29"/>
+        <v>2500</v>
+      </c>
+      <c r="O91" s="13">
+        <f t="shared" si="30"/>
+        <v>2625</v>
+      </c>
+      <c r="P91" s="13">
+        <f t="shared" si="53"/>
+        <v>5125</v>
+      </c>
+      <c r="Q91" s="13"/>
+      <c r="R91" s="13"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>24</v>
+      </c>
+      <c r="B92" s="5">
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="F67" s="5">
+      <c r="C92" s="5">
+        <f t="shared" si="37"/>
+        <v>-109575</v>
+      </c>
+      <c r="F92">
+        <v>24</v>
+      </c>
+      <c r="G92" s="5">
+        <f>G91-H91</f>
         <v>0</v>
       </c>
-      <c r="G67" s="13">
-        <f t="shared" ref="G67" si="23">E67*0.2</f>
+      <c r="H92" s="5">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="H67" s="5">
-        <f t="shared" ref="H67" si="24">SUM(F67:G67)</f>
+      <c r="I92" s="13">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="I67" s="13"/>
-      <c r="J67" s="5">
-        <f t="shared" si="19"/>
+      <c r="J92" s="5">
+        <f>SUM(H92:I92)</f>
         <v>0</v>
       </c>
-      <c r="K67" s="13">
+      <c r="K92" s="13"/>
+      <c r="L92" s="13">
+        <v>21</v>
+      </c>
+      <c r="M92" s="5">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="L67" s="13">
-        <f t="shared" si="15"/>
+      <c r="N92" s="5">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="M67" s="13">
-        <f t="shared" si="16"/>
+      <c r="O92" s="13">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="N67" s="13"/>
-      <c r="O67" s="5">
-        <f t="shared" si="20"/>
-        <v>2500</v>
-      </c>
-      <c r="P67" s="13">
-        <v>2500</v>
-      </c>
-      <c r="Q67" s="13">
-        <f t="shared" si="21"/>
-        <v>750</v>
-      </c>
-      <c r="R67" s="13">
-        <f t="shared" si="17"/>
-        <v>3250</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C68" s="11"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="13"/>
-      <c r="O68" s="5">
-        <f t="shared" ref="O68" si="25">O67-P67</f>
+      <c r="P92" s="13">
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="P68" s="13">
+      <c r="Q92" s="13"/>
+      <c r="R92" s="13"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>25</v>
+      </c>
+      <c r="B93" s="5">
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="Q68" s="13">
-        <f t="shared" ref="Q68" si="26">0.25*O68</f>
+      <c r="C93" s="5">
+        <f t="shared" si="37"/>
+        <v>-89375</v>
+      </c>
+      <c r="F93">
+        <v>25</v>
+      </c>
+      <c r="G93" s="5">
+        <f>G92-H92</f>
         <v>0</v>
       </c>
-      <c r="R68" s="13">
-        <f t="shared" ref="R68" si="27">SUM(P68:Q68)</f>
+      <c r="H93" s="5">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="13"/>
-      <c r="O70" s="13"/>
-      <c r="P70" s="13"/>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="13"/>
-      <c r="O71" s="13"/>
-      <c r="P71" s="13"/>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="13"/>
-      <c r="O72" s="13"/>
-      <c r="P72" s="13"/>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="13"/>
-      <c r="O73" s="13"/>
-      <c r="P73" s="13"/>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="13"/>
-      <c r="P74" s="13"/>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="13"/>
-      <c r="P75" s="13"/>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="13"/>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="13"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="13"/>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="13"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="13"/>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="13"/>
-      <c r="P79" s="13"/>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="13"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
-      <c r="O80" s="13"/>
-      <c r="P80" s="13"/>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="13"/>
-      <c r="O81" s="13"/>
-      <c r="P81" s="13"/>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="13"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="13"/>
-      <c r="O82" s="13"/>
-      <c r="P82" s="13"/>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="13"/>
-      <c r="O83" s="13"/>
-      <c r="P83" s="13"/>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
-      <c r="L84" s="13"/>
-      <c r="M84" s="13"/>
-      <c r="N84" s="13"/>
-      <c r="O84" s="13"/>
-      <c r="P84" s="13"/>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
-      <c r="O85" s="13"/>
-      <c r="P85" s="13"/>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="13"/>
-      <c r="O86" s="13"/>
-      <c r="P86" s="13"/>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="13"/>
-      <c r="O87" s="13"/>
-      <c r="P87" s="13"/>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="13"/>
-      <c r="O88" s="13"/>
-      <c r="P88" s="13"/>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="13"/>
-      <c r="L89" s="13"/>
-      <c r="M89" s="13"/>
-      <c r="N89" s="13"/>
-      <c r="O89" s="13"/>
-      <c r="P89" s="13"/>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
-      <c r="K90" s="13"/>
-      <c r="L90" s="13"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="13"/>
-      <c r="O90" s="13"/>
-      <c r="P90" s="13"/>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="13"/>
-      <c r="O91" s="13"/>
-      <c r="P91" s="13"/>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="13"/>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="13"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
-      <c r="K92" s="13"/>
-      <c r="L92" s="13"/>
-      <c r="M92" s="13"/>
-      <c r="N92" s="13"/>
-      <c r="O92" s="13"/>
-      <c r="P92" s="13"/>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13"/>
+      <c r="I93" s="13">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="5">
+        <f>SUM(H93:I93)</f>
+        <v>0</v>
+      </c>
       <c r="K93" s="13"/>
-      <c r="L93" s="13"/>
-      <c r="M93" s="13"/>
-      <c r="N93" s="13"/>
-      <c r="O93" s="13"/>
-      <c r="P93" s="13"/>
+      <c r="L93" s="13">
+        <v>22</v>
+      </c>
+      <c r="M93" s="5">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="N93" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O93" s="13">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P93" s="13">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
       <c r="Q93" s="13"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
-      <c r="J94" s="13"/>
+      <c r="R93" s="13"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>26</v>
+      </c>
+      <c r="B94" s="5">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="C94" s="5">
+        <f t="shared" si="37"/>
+        <v>-69175</v>
+      </c>
+      <c r="F94">
+        <v>26</v>
+      </c>
+      <c r="G94" s="5">
+        <f>G93-H93</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="5">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="13">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="5">
+        <f>SUM(H94:I94)</f>
+        <v>0</v>
+      </c>
       <c r="K94" s="13"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="13"/>
-      <c r="O94" s="13"/>
-      <c r="P94" s="13"/>
+      <c r="L94" s="13">
+        <v>23</v>
+      </c>
+      <c r="M94" s="5">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="N94" s="5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O94" s="13">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P94" s="13">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
       <c r="Q94" s="13"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R94" s="13"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -55979,7 +57356,7 @@
       <c r="P95" s="13"/>
       <c r="Q95" s="13"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -55998,7 +57375,7 @@
       <c r="P96" s="13"/>
       <c r="Q96" s="13"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -56017,7 +57394,7 @@
       <c r="P97" s="13"/>
       <c r="Q97" s="13"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -56036,7 +57413,7 @@
       <c r="P98" s="13"/>
       <c r="Q98" s="13"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -56055,577 +57432,1988 @@
       <c r="P99" s="13"/>
       <c r="Q99" s="13"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A100" s="13"/>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="13"/>
-      <c r="K100" s="13"/>
-      <c r="L100" s="13"/>
-      <c r="M100" s="13"/>
-      <c r="N100" s="13"/>
-      <c r="O100" s="13"/>
-      <c r="P100" s="13"/>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="13"/>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="13"/>
-      <c r="O101" s="13"/>
-      <c r="P101" s="13"/>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A102" s="13"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
-      <c r="K102" s="13"/>
-      <c r="L102" s="13"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="13"/>
-      <c r="O102" s="13"/>
-      <c r="P102" s="13"/>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A103" s="13"/>
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
-      <c r="J103" s="13"/>
-      <c r="K103" s="13"/>
-      <c r="L103" s="13"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13"/>
-      <c r="O103" s="13"/>
-      <c r="P103" s="13"/>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A104" s="13"/>
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13"/>
-      <c r="K104" s="13"/>
-      <c r="L104" s="13"/>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G100" t="s">
+        <v>417</v>
+      </c>
+      <c r="H100" t="s">
+        <v>410</v>
+      </c>
+      <c r="I100" t="s">
+        <v>416</v>
+      </c>
+      <c r="J100" t="s">
+        <v>164</v>
+      </c>
+      <c r="N100" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>164</v>
+      </c>
+      <c r="U100" t="s">
+        <v>417</v>
+      </c>
+      <c r="X100" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G101" s="5">
+        <v>100000</v>
+      </c>
+      <c r="H101">
+        <v>0.05</v>
+      </c>
+      <c r="I101">
+        <f>I102/1000</f>
+        <v>0.05</v>
+      </c>
+      <c r="J101" s="5">
+        <f>SUM(J104:J130,K104:K130)</f>
+        <v>196250</v>
+      </c>
+      <c r="N101" s="5">
+        <v>50000</v>
+      </c>
+      <c r="Q101" s="5">
+        <f>SUM(Q104:Q130,R104:R130)</f>
+        <v>268750</v>
+      </c>
+      <c r="U101" s="5">
+        <v>50000</v>
+      </c>
+      <c r="X101" s="5">
+        <f>SUM(X104:X130,Y104:Y130)</f>
+        <v>268750</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I102">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>409</v>
+      </c>
+      <c r="B103" t="s">
+        <v>369</v>
+      </c>
+      <c r="C103" t="s">
+        <v>411</v>
+      </c>
+      <c r="D103" t="s">
+        <v>418</v>
+      </c>
+      <c r="F103" t="s">
+        <v>409</v>
+      </c>
+      <c r="G103" t="s">
+        <v>359</v>
+      </c>
+      <c r="H103" t="s">
+        <v>362</v>
+      </c>
+      <c r="I103" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="J103" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K103" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="M103" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="N103" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="O103" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="P103" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q103" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="R103" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="T103" t="s">
+        <v>409</v>
+      </c>
+      <c r="U103" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="V103" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="W103" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="X103" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y103" s="13" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104" s="5">
+        <f>J104+Q104+X104</f>
+        <v>15000</v>
+      </c>
+      <c r="C104" s="5">
+        <f>$B$28-B104+D104-K104-R104-Y104</f>
+        <v>5200</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" s="5">
+        <f>G101</f>
+        <v>100000</v>
+      </c>
+      <c r="H104" s="5">
+        <f>IF(G104 &gt; 0, $G$101*0.05, 0)</f>
+        <v>5000</v>
+      </c>
+      <c r="I104" s="13">
+        <f>G104*($H$101+A104*$I$101)</f>
+        <v>10000</v>
+      </c>
+      <c r="J104" s="5">
+        <f>SUM(H104:I104)</f>
+        <v>15000</v>
+      </c>
       <c r="M104" s="13"/>
-      <c r="N104" s="13"/>
-      <c r="O104" s="13"/>
-      <c r="P104" s="13"/>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A105" s="13"/>
-      <c r="B105" s="13"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="13"/>
-      <c r="L105" s="13"/>
-      <c r="M105" s="13"/>
-      <c r="N105" s="13"/>
-      <c r="O105" s="13"/>
-      <c r="P105" s="13"/>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A106" s="13"/>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13"/>
-      <c r="E106" s="13"/>
-      <c r="F106" s="13"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="13"/>
-      <c r="K106" s="13"/>
-      <c r="L106" s="13"/>
-      <c r="M106" s="13"/>
-      <c r="N106" s="13"/>
-      <c r="O106" s="13"/>
-      <c r="P106" s="13"/>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A107" s="13"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A108" s="13"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
-      <c r="E108" s="13"/>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
-      <c r="H108" s="13"/>
-      <c r="I108" s="13"/>
-      <c r="J108" s="13"/>
-      <c r="K108" s="13"/>
-      <c r="L108" s="13"/>
-      <c r="M108" s="13"/>
-      <c r="N108" s="13"/>
-      <c r="O108" s="13"/>
-      <c r="P108" s="13"/>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A109" s="13"/>
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="13"/>
-      <c r="G109" s="13"/>
-      <c r="H109" s="13"/>
-      <c r="I109" s="13"/>
-      <c r="J109" s="13"/>
-      <c r="K109" s="13"/>
-      <c r="L109" s="13"/>
-      <c r="M109" s="13"/>
-      <c r="N109" s="13"/>
-      <c r="O109" s="13"/>
-      <c r="P109" s="13"/>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A110" s="13"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="13"/>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="13"/>
-      <c r="I110" s="13"/>
-      <c r="J110" s="13"/>
-      <c r="K110" s="13"/>
-      <c r="L110" s="13"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="13"/>
-      <c r="O110" s="13"/>
-      <c r="P110" s="13"/>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A111" s="13"/>
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
-      <c r="F111" s="13"/>
-      <c r="G111" s="13"/>
-      <c r="H111" s="13"/>
-      <c r="I111" s="13"/>
-      <c r="J111" s="13"/>
-      <c r="K111" s="13"/>
-      <c r="L111" s="13"/>
-      <c r="M111" s="13"/>
-      <c r="N111" s="13"/>
-      <c r="O111" s="13"/>
-      <c r="P111" s="13"/>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A112" s="13"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="13"/>
-      <c r="J112" s="13"/>
-      <c r="K112" s="13"/>
-      <c r="L112" s="13"/>
-      <c r="M112" s="13"/>
-      <c r="N112" s="13"/>
-      <c r="O112" s="13"/>
-      <c r="P112" s="13"/>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A113" s="13"/>
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="13"/>
-      <c r="J113" s="13"/>
-      <c r="K113" s="13"/>
-      <c r="L113" s="13"/>
-      <c r="M113" s="13"/>
-      <c r="N113" s="13"/>
-      <c r="O113" s="13"/>
-      <c r="P113" s="13"/>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A114" s="13"/>
-      <c r="B114" s="13"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
-      <c r="I114" s="13"/>
-      <c r="J114" s="13"/>
-      <c r="K114" s="13"/>
-      <c r="L114" s="13"/>
-      <c r="M114" s="13"/>
-      <c r="N114" s="13"/>
-      <c r="O114" s="13"/>
-      <c r="P114" s="13"/>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="13"/>
-      <c r="B115" s="13"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="13"/>
-      <c r="J115" s="13"/>
-      <c r="K115" s="13"/>
-      <c r="L115" s="13"/>
-      <c r="M115" s="13"/>
-      <c r="N115" s="13"/>
-      <c r="O115" s="13"/>
-      <c r="P115" s="13"/>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A116" s="13"/>
-      <c r="B116" s="13"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="13"/>
-      <c r="J116" s="13"/>
-      <c r="K116" s="13"/>
-      <c r="L116" s="13"/>
-      <c r="M116" s="13"/>
-      <c r="N116" s="13"/>
-      <c r="O116" s="13"/>
-      <c r="P116" s="13"/>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A117" s="13"/>
-      <c r="B117" s="13"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="13"/>
-      <c r="J117" s="13"/>
-      <c r="K117" s="13"/>
-      <c r="L117" s="13"/>
-      <c r="M117" s="13"/>
-      <c r="N117" s="13"/>
-      <c r="O117" s="13"/>
-      <c r="P117" s="13"/>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="13"/>
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="13"/>
-      <c r="I118" s="13"/>
-      <c r="J118" s="13"/>
-      <c r="K118" s="13"/>
-      <c r="L118" s="13"/>
-      <c r="M118" s="13"/>
-      <c r="N118" s="13"/>
-      <c r="O118" s="13"/>
-      <c r="P118" s="13"/>
-      <c r="Q118" s="13"/>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="13"/>
-      <c r="B119" s="13"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
-      <c r="I119" s="13"/>
-      <c r="J119" s="13"/>
-      <c r="K119" s="13"/>
-      <c r="L119" s="13"/>
-      <c r="M119" s="13"/>
-      <c r="N119" s="13"/>
-      <c r="O119" s="13"/>
-      <c r="P119" s="13"/>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120" s="13"/>
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="13"/>
-      <c r="J120" s="13"/>
-      <c r="K120" s="13"/>
-      <c r="L120" s="13"/>
-      <c r="M120" s="13"/>
-      <c r="N120" s="13"/>
-      <c r="O120" s="13"/>
-      <c r="P120" s="13"/>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" s="13"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="13"/>
-      <c r="J121" s="13"/>
-      <c r="K121" s="13"/>
-      <c r="L121" s="13"/>
-      <c r="M121" s="13"/>
-      <c r="N121" s="13"/>
-      <c r="O121" s="13"/>
-      <c r="P121" s="13"/>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A122" s="13"/>
-      <c r="B122" s="13"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="13"/>
-      <c r="J122" s="13"/>
+      <c r="N104" s="5">
+        <v>0</v>
+      </c>
+      <c r="O104" s="5">
+        <f>IF(N104 &gt; 0, $N$101*0.05, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P104" s="13">
+        <f>N104*($H$101+M104*$I$101)</f>
+        <v>0</v>
+      </c>
+      <c r="Q104" s="13">
+        <f>SUM(O104:P104)</f>
+        <v>0</v>
+      </c>
+      <c r="R104" s="13"/>
+      <c r="U104" s="5">
+        <v>0</v>
+      </c>
+      <c r="V104" s="5">
+        <f t="shared" ref="V104:V109" si="54">IF(U104 &gt; 0, $U$101*0.05, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="W104" s="13">
+        <f>U104*($H$66+T104*$I$66)</f>
+        <v>0</v>
+      </c>
+      <c r="X104" s="5">
+        <f>SUM(V104:W104)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105" s="5">
+        <f t="shared" ref="B105:B129" si="55">J105+Q105+X105</f>
+        <v>26750</v>
+      </c>
+      <c r="C105" s="5">
+        <f>$B$28-B105+D105+C104-K105-R105-Y105</f>
+        <v>18650</v>
+      </c>
+      <c r="D105">
+        <v>50000</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105" s="5">
+        <f>G104-H104-K104</f>
+        <v>95000</v>
+      </c>
+      <c r="H105" s="5">
+        <f t="shared" ref="H105:H129" si="56">IF(G105 &gt; 0, $G$101*0.05, 0)</f>
+        <v>5000</v>
+      </c>
+      <c r="I105" s="13">
+        <f t="shared" ref="I105:I129" si="57">G105*($H$101+A105*$I$101)</f>
+        <v>14250.000000000002</v>
+      </c>
+      <c r="J105" s="5">
+        <f t="shared" ref="J105:J109" si="58">SUM(H105:I105)</f>
+        <v>19250</v>
+      </c>
+      <c r="K105">
+        <v>30000</v>
+      </c>
+      <c r="M105" s="13">
+        <v>1</v>
+      </c>
+      <c r="N105" s="5">
+        <f>N101</f>
+        <v>50000</v>
+      </c>
+      <c r="O105" s="5">
+        <f t="shared" ref="O105:O129" si="59">IF(N105 &gt; 0, $N$101*0.05, 0)</f>
+        <v>2500</v>
+      </c>
+      <c r="P105" s="13">
+        <f t="shared" ref="P105:P129" si="60">N105*($H$101+M105*$I$101)</f>
+        <v>5000</v>
+      </c>
+      <c r="Q105" s="13">
+        <f t="shared" ref="Q105:Q129" si="61">SUM(O105:P105)</f>
+        <v>7500</v>
+      </c>
+      <c r="R105" s="13"/>
+      <c r="U105" s="5">
+        <v>0</v>
+      </c>
+      <c r="V105" s="5">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="W105" s="13">
+        <f t="shared" ref="W105:W106" si="62">U105*($H$66+T105*$I$66)</f>
+        <v>0</v>
+      </c>
+      <c r="X105" s="13">
+        <f t="shared" ref="X105" si="63">SUM(V105:W105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>3</v>
+      </c>
+      <c r="B106" s="5">
+        <f t="shared" si="55"/>
+        <v>26625</v>
+      </c>
+      <c r="C106" s="5">
+        <f t="shared" ref="C106:C129" si="64">$B$28-B106+D106+C105-K106-R106</f>
+        <v>12225</v>
+      </c>
+      <c r="F106">
+        <v>3</v>
+      </c>
+      <c r="G106" s="5">
+        <f t="shared" ref="G106:G129" si="65">G105-H105-K105</f>
+        <v>60000</v>
+      </c>
+      <c r="H106" s="5">
+        <f t="shared" si="56"/>
+        <v>5000</v>
+      </c>
+      <c r="I106" s="13">
+        <f t="shared" si="57"/>
+        <v>12000</v>
+      </c>
+      <c r="J106" s="5">
+        <f t="shared" si="58"/>
+        <v>17000</v>
+      </c>
+      <c r="M106" s="13">
+        <v>2</v>
+      </c>
+      <c r="N106" s="5">
+        <f t="shared" ref="N106:N111" si="66">N105-O105-R105</f>
+        <v>47500</v>
+      </c>
+      <c r="O106" s="5">
+        <f t="shared" si="59"/>
+        <v>2500</v>
+      </c>
+      <c r="P106" s="13">
+        <f t="shared" si="60"/>
+        <v>7125.0000000000009</v>
+      </c>
+      <c r="Q106" s="13">
+        <f t="shared" si="61"/>
+        <v>9625</v>
+      </c>
+      <c r="R106" s="13"/>
+      <c r="U106" s="5">
+        <f t="shared" ref="U106:U109" si="67">U105-V105-Y105</f>
+        <v>0</v>
+      </c>
+      <c r="V106" s="5">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="W106" s="13">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="X106" s="13">
+        <f t="shared" ref="X106:X110" si="68">SUM(V106:W106)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>4</v>
+      </c>
+      <c r="B107" s="5">
+        <f t="shared" si="55"/>
+        <v>30250</v>
+      </c>
+      <c r="C107" s="5">
+        <f t="shared" si="64"/>
+        <v>2175</v>
+      </c>
+      <c r="D107" s="5"/>
+      <c r="F107">
+        <v>4</v>
+      </c>
+      <c r="G107" s="5">
+        <f t="shared" si="65"/>
+        <v>55000</v>
+      </c>
+      <c r="H107" s="5">
+        <f t="shared" si="56"/>
+        <v>5000</v>
+      </c>
+      <c r="I107" s="13">
+        <f t="shared" si="57"/>
+        <v>13750</v>
+      </c>
+      <c r="J107" s="5">
+        <f t="shared" si="58"/>
+        <v>18750</v>
+      </c>
+      <c r="M107" s="13">
+        <v>3</v>
+      </c>
+      <c r="N107" s="5">
+        <f t="shared" si="66"/>
+        <v>45000</v>
+      </c>
+      <c r="O107" s="5">
+        <f t="shared" si="59"/>
+        <v>2500</v>
+      </c>
+      <c r="P107" s="13">
+        <f t="shared" si="60"/>
+        <v>9000</v>
+      </c>
+      <c r="Q107" s="5">
+        <f>SUM(O107:P107)</f>
+        <v>11500</v>
+      </c>
+      <c r="R107" s="13"/>
+      <c r="U107" s="5">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="V107" s="5">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="W107" s="13">
+        <f>U107*($H$66+T107*$I$66)</f>
+        <v>0</v>
+      </c>
+      <c r="X107" s="13">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>5</v>
+      </c>
+      <c r="B108" s="5">
+        <f t="shared" si="55"/>
+        <v>40625</v>
+      </c>
+      <c r="C108" s="5">
+        <f t="shared" si="64"/>
+        <v>11750</v>
+      </c>
+      <c r="D108">
+        <v>50000</v>
+      </c>
+      <c r="F108">
+        <v>5</v>
+      </c>
+      <c r="G108" s="5">
+        <f t="shared" si="65"/>
+        <v>50000</v>
+      </c>
+      <c r="H108" s="5">
+        <f t="shared" si="56"/>
+        <v>5000</v>
+      </c>
+      <c r="I108" s="13">
+        <f t="shared" si="57"/>
+        <v>15000</v>
+      </c>
+      <c r="J108" s="5">
+        <f t="shared" si="58"/>
+        <v>20000</v>
+      </c>
+      <c r="K108">
+        <v>20000</v>
+      </c>
+      <c r="M108" s="13">
+        <v>4</v>
+      </c>
+      <c r="N108" s="5">
+        <f t="shared" si="66"/>
+        <v>42500</v>
+      </c>
+      <c r="O108" s="5">
+        <f t="shared" si="59"/>
+        <v>2500</v>
+      </c>
+      <c r="P108" s="13">
+        <f t="shared" si="60"/>
+        <v>10625</v>
+      </c>
+      <c r="Q108" s="13">
+        <f t="shared" si="61"/>
+        <v>13125</v>
+      </c>
+      <c r="R108" s="13"/>
+      <c r="T108">
+        <v>1</v>
+      </c>
+      <c r="U108" s="5">
+        <f>U101</f>
+        <v>50000</v>
+      </c>
+      <c r="V108" s="5">
+        <f t="shared" si="54"/>
+        <v>2500</v>
+      </c>
+      <c r="W108" s="13">
+        <f t="shared" ref="W108:W110" si="69">U108*($H$66+T108*$I$66)</f>
+        <v>5000</v>
+      </c>
+      <c r="X108" s="13">
+        <f t="shared" si="68"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>6</v>
+      </c>
+      <c r="B109" s="5">
+        <f t="shared" si="55"/>
+        <v>37875</v>
+      </c>
+      <c r="C109" s="5">
+        <f t="shared" si="64"/>
+        <v>-5925</v>
+      </c>
+      <c r="D109" s="5"/>
+      <c r="F109">
+        <v>6</v>
+      </c>
+      <c r="G109" s="5">
+        <f>G108-H108-K108</f>
+        <v>25000</v>
+      </c>
+      <c r="H109" s="5">
+        <f t="shared" si="56"/>
+        <v>5000</v>
+      </c>
+      <c r="I109" s="13">
+        <f t="shared" si="57"/>
+        <v>8750</v>
+      </c>
+      <c r="J109" s="5">
+        <f t="shared" si="58"/>
+        <v>13750</v>
+      </c>
+      <c r="M109" s="13">
+        <v>5</v>
+      </c>
+      <c r="N109" s="5">
+        <f t="shared" si="66"/>
+        <v>40000</v>
+      </c>
+      <c r="O109" s="5">
+        <f t="shared" si="59"/>
+        <v>2500</v>
+      </c>
+      <c r="P109" s="13">
+        <f t="shared" si="60"/>
+        <v>12000</v>
+      </c>
+      <c r="Q109" s="13">
+        <f t="shared" si="61"/>
+        <v>14500</v>
+      </c>
+      <c r="R109" s="13"/>
+      <c r="T109">
+        <v>2</v>
+      </c>
+      <c r="U109" s="5">
+        <f t="shared" si="67"/>
+        <v>47500</v>
+      </c>
+      <c r="V109" s="5">
+        <f t="shared" si="54"/>
+        <v>2500</v>
+      </c>
+      <c r="W109" s="13">
+        <f t="shared" si="69"/>
+        <v>7125.0000000000009</v>
+      </c>
+      <c r="X109" s="5">
+        <f>SUM(V109:W109)</f>
+        <v>9625</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>7</v>
+      </c>
+      <c r="B110" s="5">
+        <f t="shared" si="55"/>
+        <v>40125</v>
+      </c>
+      <c r="C110" s="5">
+        <f t="shared" si="64"/>
+        <v>-25850</v>
+      </c>
+      <c r="F110">
+        <v>7</v>
+      </c>
+      <c r="G110" s="5">
+        <f t="shared" si="65"/>
+        <v>20000</v>
+      </c>
+      <c r="H110" s="5">
+        <f t="shared" si="56"/>
+        <v>5000</v>
+      </c>
+      <c r="I110" s="13">
+        <f t="shared" si="57"/>
+        <v>8000</v>
+      </c>
+      <c r="J110" s="5">
+        <f>SUM(H110:I110)</f>
+        <v>13000</v>
+      </c>
+      <c r="K110" s="5"/>
+      <c r="M110" s="13">
+        <v>6</v>
+      </c>
+      <c r="N110" s="5">
+        <f t="shared" si="66"/>
+        <v>37500</v>
+      </c>
+      <c r="O110" s="5">
+        <f t="shared" si="59"/>
+        <v>2500</v>
+      </c>
+      <c r="P110" s="13">
+        <f t="shared" si="60"/>
+        <v>13125.000000000002</v>
+      </c>
+      <c r="Q110" s="13">
+        <f t="shared" si="61"/>
+        <v>15625.000000000002</v>
+      </c>
+      <c r="R110" s="13"/>
+      <c r="S110" s="13"/>
+      <c r="T110">
+        <v>3</v>
+      </c>
+      <c r="U110" s="5">
+        <f>U109-V109-Y109</f>
+        <v>45000</v>
+      </c>
+      <c r="V110" s="5">
+        <f>IF(U110 &gt; 0, $U$101*0.05, 0)</f>
+        <v>2500</v>
+      </c>
+      <c r="W110" s="13">
+        <f t="shared" si="69"/>
+        <v>9000</v>
+      </c>
+      <c r="X110" s="13">
+        <f t="shared" si="68"/>
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>8</v>
+      </c>
+      <c r="B111" s="5">
+        <f t="shared" si="55"/>
+        <v>41375</v>
+      </c>
+      <c r="C111" s="5">
+        <f t="shared" si="64"/>
+        <v>-47025</v>
+      </c>
+      <c r="F111">
+        <v>8</v>
+      </c>
+      <c r="G111" s="5">
+        <f t="shared" si="65"/>
+        <v>15000</v>
+      </c>
+      <c r="H111" s="5">
+        <f t="shared" si="56"/>
+        <v>5000</v>
+      </c>
+      <c r="I111" s="13">
+        <f t="shared" si="57"/>
+        <v>6750</v>
+      </c>
+      <c r="J111" s="5">
+        <f t="shared" ref="J111:J114" si="70">SUM(H111:I111)</f>
+        <v>11750</v>
+      </c>
+      <c r="M111" s="13">
+        <v>7</v>
+      </c>
+      <c r="N111" s="5">
+        <f t="shared" si="66"/>
+        <v>35000</v>
+      </c>
+      <c r="O111" s="5">
+        <f t="shared" si="59"/>
+        <v>2500</v>
+      </c>
+      <c r="P111" s="13">
+        <f t="shared" si="60"/>
+        <v>14000</v>
+      </c>
+      <c r="Q111" s="13">
+        <f t="shared" si="61"/>
+        <v>16500</v>
+      </c>
+      <c r="R111" s="13"/>
+      <c r="S111" s="13"/>
+      <c r="T111">
+        <v>4</v>
+      </c>
+      <c r="U111" s="5">
+        <f t="shared" ref="U111:U129" si="71">U110-V110-Y110</f>
+        <v>42500</v>
+      </c>
+      <c r="V111" s="5">
+        <f t="shared" ref="V111:V129" si="72">IF(U111 &gt; 0, $U$101*0.05, 0)</f>
+        <v>2500</v>
+      </c>
+      <c r="W111" s="13">
+        <f t="shared" ref="W111:W129" si="73">U111*($H$66+T111*$I$66)</f>
+        <v>10625</v>
+      </c>
+      <c r="X111" s="13">
+        <f t="shared" ref="X111:X129" si="74">SUM(V111:W111)</f>
+        <v>13125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>9</v>
+      </c>
+      <c r="B112" s="5">
+        <f t="shared" si="55"/>
+        <v>41625</v>
+      </c>
+      <c r="C112" s="5">
+        <f t="shared" si="64"/>
+        <v>-68450</v>
+      </c>
+      <c r="F112">
+        <v>9</v>
+      </c>
+      <c r="G112" s="5">
+        <f t="shared" si="65"/>
+        <v>10000</v>
+      </c>
+      <c r="H112" s="5">
+        <f t="shared" si="56"/>
+        <v>5000</v>
+      </c>
+      <c r="I112" s="13">
+        <f t="shared" si="57"/>
+        <v>5000</v>
+      </c>
+      <c r="J112" s="5">
+        <f t="shared" si="70"/>
+        <v>10000</v>
+      </c>
+      <c r="M112" s="13">
+        <v>8</v>
+      </c>
+      <c r="N112" s="5">
+        <f t="shared" ref="N112:N129" si="75">N111-O111-R111</f>
+        <v>32500</v>
+      </c>
+      <c r="O112" s="5">
+        <f t="shared" si="59"/>
+        <v>2500</v>
+      </c>
+      <c r="P112" s="13">
+        <f t="shared" si="60"/>
+        <v>14625</v>
+      </c>
+      <c r="Q112" s="13">
+        <f t="shared" si="61"/>
+        <v>17125</v>
+      </c>
+      <c r="R112" s="13"/>
+      <c r="S112" s="13"/>
+      <c r="T112">
+        <v>5</v>
+      </c>
+      <c r="U112" s="5">
+        <f t="shared" si="71"/>
+        <v>40000</v>
+      </c>
+      <c r="V112" s="5">
+        <f t="shared" si="72"/>
+        <v>2500</v>
+      </c>
+      <c r="W112" s="13">
+        <f t="shared" si="73"/>
+        <v>12000</v>
+      </c>
+      <c r="X112" s="13">
+        <f t="shared" si="74"/>
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>10</v>
+      </c>
+      <c r="B113" s="5">
+        <f t="shared" si="55"/>
+        <v>40875</v>
+      </c>
+      <c r="C113" s="5">
+        <f t="shared" si="64"/>
+        <v>-89125</v>
+      </c>
+      <c r="F113">
+        <v>10</v>
+      </c>
+      <c r="G113" s="5">
+        <f t="shared" si="65"/>
+        <v>5000</v>
+      </c>
+      <c r="H113" s="5">
+        <f t="shared" si="56"/>
+        <v>5000</v>
+      </c>
+      <c r="I113" s="13">
+        <f t="shared" si="57"/>
+        <v>2750</v>
+      </c>
+      <c r="J113" s="5">
+        <f t="shared" si="70"/>
+        <v>7750</v>
+      </c>
+      <c r="M113" s="13">
+        <v>9</v>
+      </c>
+      <c r="N113" s="5">
+        <f t="shared" si="75"/>
+        <v>30000</v>
+      </c>
+      <c r="O113" s="5">
+        <f t="shared" si="59"/>
+        <v>2500</v>
+      </c>
+      <c r="P113" s="13">
+        <f t="shared" si="60"/>
+        <v>15000</v>
+      </c>
+      <c r="Q113" s="13">
+        <f t="shared" si="61"/>
+        <v>17500</v>
+      </c>
+      <c r="T113">
+        <v>6</v>
+      </c>
+      <c r="U113" s="5">
+        <f>U112-V112-Y112</f>
+        <v>37500</v>
+      </c>
+      <c r="V113" s="5">
+        <f t="shared" si="72"/>
+        <v>2500</v>
+      </c>
+      <c r="W113" s="13">
+        <f t="shared" si="73"/>
+        <v>13125.000000000002</v>
+      </c>
+      <c r="X113" s="13">
+        <f t="shared" si="74"/>
+        <v>15625.000000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>11</v>
+      </c>
+      <c r="B114" s="5">
+        <f t="shared" si="55"/>
+        <v>34125</v>
+      </c>
+      <c r="C114" s="5">
+        <f t="shared" si="64"/>
+        <v>-103050</v>
+      </c>
+      <c r="F114">
+        <v>11</v>
+      </c>
+      <c r="G114" s="5">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="H114" s="5">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="I114" s="13">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="5">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="M114" s="13">
+        <v>10</v>
+      </c>
+      <c r="N114" s="5">
+        <f t="shared" si="75"/>
+        <v>27500</v>
+      </c>
+      <c r="O114" s="5">
+        <f t="shared" si="59"/>
+        <v>2500</v>
+      </c>
+      <c r="P114" s="13">
+        <f t="shared" si="60"/>
+        <v>15125.000000000002</v>
+      </c>
+      <c r="Q114" s="13">
+        <f t="shared" si="61"/>
+        <v>17625</v>
+      </c>
+      <c r="T114">
+        <v>7</v>
+      </c>
+      <c r="U114" s="5">
+        <f t="shared" si="71"/>
+        <v>35000</v>
+      </c>
+      <c r="V114" s="5">
+        <f t="shared" si="72"/>
+        <v>2500</v>
+      </c>
+      <c r="W114" s="13">
+        <f t="shared" si="73"/>
+        <v>14000</v>
+      </c>
+      <c r="X114" s="13">
+        <f t="shared" si="74"/>
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>12</v>
+      </c>
+      <c r="B115" s="5">
+        <f t="shared" si="55"/>
+        <v>34625</v>
+      </c>
+      <c r="C115" s="5">
+        <f t="shared" si="64"/>
+        <v>-117475</v>
+      </c>
+      <c r="F115">
+        <v>12</v>
+      </c>
+      <c r="G115" s="5">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="H115" s="5">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="13">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="5">
+        <f>SUM(H115:I115)</f>
+        <v>0</v>
+      </c>
+      <c r="M115" s="13">
+        <v>11</v>
+      </c>
+      <c r="N115" s="5">
+        <f t="shared" si="75"/>
+        <v>25000</v>
+      </c>
+      <c r="O115" s="5">
+        <f t="shared" si="59"/>
+        <v>2500</v>
+      </c>
+      <c r="P115" s="13">
+        <f t="shared" si="60"/>
+        <v>15000.000000000002</v>
+      </c>
+      <c r="Q115" s="13">
+        <f t="shared" si="61"/>
+        <v>17500</v>
+      </c>
+      <c r="T115">
+        <v>8</v>
+      </c>
+      <c r="U115" s="5">
+        <f t="shared" si="71"/>
+        <v>32500</v>
+      </c>
+      <c r="V115" s="5">
+        <f t="shared" si="72"/>
+        <v>2500</v>
+      </c>
+      <c r="W115" s="13">
+        <f t="shared" si="73"/>
+        <v>14625</v>
+      </c>
+      <c r="X115" s="13">
+        <f t="shared" si="74"/>
+        <v>17125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>13</v>
+      </c>
+      <c r="B116" s="5">
+        <f t="shared" si="55"/>
+        <v>34625</v>
+      </c>
+      <c r="C116" s="5">
+        <f t="shared" si="64"/>
+        <v>-131900</v>
+      </c>
+      <c r="F116">
+        <v>13</v>
+      </c>
+      <c r="G116" s="5">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="H116" s="5">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="13">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="5">
+        <f t="shared" ref="J116:J120" si="76">SUM(H116:I116)</f>
+        <v>0</v>
+      </c>
+      <c r="M116" s="13">
+        <v>12</v>
+      </c>
+      <c r="N116" s="5">
+        <f t="shared" si="75"/>
+        <v>22500</v>
+      </c>
+      <c r="O116" s="5">
+        <f t="shared" si="59"/>
+        <v>2500</v>
+      </c>
+      <c r="P116" s="13">
+        <f t="shared" si="60"/>
+        <v>14625.000000000004</v>
+      </c>
+      <c r="Q116" s="13">
+        <f t="shared" si="61"/>
+        <v>17125.000000000004</v>
+      </c>
+      <c r="T116">
+        <v>9</v>
+      </c>
+      <c r="U116" s="5">
+        <f t="shared" si="71"/>
+        <v>30000</v>
+      </c>
+      <c r="V116" s="5">
+        <f t="shared" si="72"/>
+        <v>2500</v>
+      </c>
+      <c r="W116" s="13">
+        <f t="shared" si="73"/>
+        <v>15000</v>
+      </c>
+      <c r="X116" s="13">
+        <f t="shared" si="74"/>
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>14</v>
+      </c>
+      <c r="B117" s="5">
+        <f t="shared" si="55"/>
+        <v>34125</v>
+      </c>
+      <c r="C117" s="5">
+        <f t="shared" si="64"/>
+        <v>-145825</v>
+      </c>
+      <c r="F117">
+        <v>14</v>
+      </c>
+      <c r="G117" s="5">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="H117" s="5">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="I117" s="13">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="M117" s="13">
+        <v>13</v>
+      </c>
+      <c r="N117" s="5">
+        <f t="shared" si="75"/>
+        <v>20000</v>
+      </c>
+      <c r="O117" s="5">
+        <f t="shared" si="59"/>
+        <v>2500</v>
+      </c>
+      <c r="P117" s="13">
+        <f t="shared" si="60"/>
+        <v>14000.000000000002</v>
+      </c>
+      <c r="Q117" s="13">
+        <f t="shared" si="61"/>
+        <v>16500</v>
+      </c>
+      <c r="T117">
+        <v>10</v>
+      </c>
+      <c r="U117" s="5">
+        <f t="shared" si="71"/>
+        <v>27500</v>
+      </c>
+      <c r="V117" s="5">
+        <f t="shared" si="72"/>
+        <v>2500</v>
+      </c>
+      <c r="W117" s="13">
+        <f t="shared" si="73"/>
+        <v>15125.000000000002</v>
+      </c>
+      <c r="X117" s="13">
+        <f t="shared" si="74"/>
+        <v>17625</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>15</v>
+      </c>
+      <c r="B118" s="5">
+        <f t="shared" si="55"/>
+        <v>33125</v>
+      </c>
+      <c r="C118" s="5">
+        <f t="shared" si="64"/>
+        <v>-158750</v>
+      </c>
+      <c r="F118">
+        <v>15</v>
+      </c>
+      <c r="G118" s="5">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="H118" s="5">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="I118" s="13">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="M118" s="13">
+        <v>14</v>
+      </c>
+      <c r="N118" s="5">
+        <f t="shared" si="75"/>
+        <v>17500</v>
+      </c>
+      <c r="O118" s="5">
+        <f t="shared" si="59"/>
+        <v>2500</v>
+      </c>
+      <c r="P118" s="13">
+        <f t="shared" si="60"/>
+        <v>13125.000000000002</v>
+      </c>
+      <c r="Q118" s="13">
+        <f t="shared" si="61"/>
+        <v>15625.000000000002</v>
+      </c>
+      <c r="T118">
+        <v>11</v>
+      </c>
+      <c r="U118" s="5">
+        <f t="shared" si="71"/>
+        <v>25000</v>
+      </c>
+      <c r="V118" s="5">
+        <f t="shared" si="72"/>
+        <v>2500</v>
+      </c>
+      <c r="W118" s="13">
+        <f t="shared" si="73"/>
+        <v>15000.000000000002</v>
+      </c>
+      <c r="X118" s="13">
+        <f t="shared" si="74"/>
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>16</v>
+      </c>
+      <c r="B119" s="5">
+        <f t="shared" si="55"/>
+        <v>31625.000000000004</v>
+      </c>
+      <c r="C119" s="5">
+        <f t="shared" si="64"/>
+        <v>-170175</v>
+      </c>
+      <c r="F119">
+        <v>16</v>
+      </c>
+      <c r="G119" s="5">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="H119" s="5">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="I119" s="13">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="M119" s="13">
+        <v>15</v>
+      </c>
+      <c r="N119" s="5">
+        <f t="shared" si="75"/>
+        <v>15000</v>
+      </c>
+      <c r="O119" s="5">
+        <f t="shared" si="59"/>
+        <v>2500</v>
+      </c>
+      <c r="P119" s="13">
+        <f t="shared" si="60"/>
+        <v>12000</v>
+      </c>
+      <c r="Q119" s="13">
+        <f t="shared" si="61"/>
+        <v>14500</v>
+      </c>
+      <c r="T119">
+        <v>12</v>
+      </c>
+      <c r="U119" s="5">
+        <f t="shared" si="71"/>
+        <v>22500</v>
+      </c>
+      <c r="V119" s="5">
+        <f t="shared" si="72"/>
+        <v>2500</v>
+      </c>
+      <c r="W119" s="13">
+        <f t="shared" si="73"/>
+        <v>14625.000000000004</v>
+      </c>
+      <c r="X119" s="13">
+        <f t="shared" si="74"/>
+        <v>17125.000000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>17</v>
+      </c>
+      <c r="B120" s="5">
+        <f t="shared" si="55"/>
+        <v>29625</v>
+      </c>
+      <c r="C120" s="5">
+        <f t="shared" si="64"/>
+        <v>-179600</v>
+      </c>
+      <c r="F120">
+        <v>17</v>
+      </c>
+      <c r="G120" s="5">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="H120" s="5">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="I120" s="13">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="5">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="M120" s="13">
+        <v>16</v>
+      </c>
+      <c r="N120" s="5">
+        <f t="shared" si="75"/>
+        <v>12500</v>
+      </c>
+      <c r="O120" s="5">
+        <f t="shared" si="59"/>
+        <v>2500</v>
+      </c>
+      <c r="P120" s="13">
+        <f t="shared" si="60"/>
+        <v>10625.000000000002</v>
+      </c>
+      <c r="Q120" s="13">
+        <f t="shared" si="61"/>
+        <v>13125.000000000002</v>
+      </c>
+      <c r="T120">
+        <v>13</v>
+      </c>
+      <c r="U120" s="5">
+        <f t="shared" si="71"/>
+        <v>20000</v>
+      </c>
+      <c r="V120" s="5">
+        <f t="shared" si="72"/>
+        <v>2500</v>
+      </c>
+      <c r="W120" s="13">
+        <f t="shared" si="73"/>
+        <v>14000.000000000002</v>
+      </c>
+      <c r="X120" s="13">
+        <f t="shared" si="74"/>
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>18</v>
+      </c>
+      <c r="B121" s="5">
+        <f t="shared" si="55"/>
+        <v>27125.000000000004</v>
+      </c>
+      <c r="C121" s="5">
+        <f t="shared" si="64"/>
+        <v>-186525</v>
+      </c>
+      <c r="F121">
+        <v>18</v>
+      </c>
+      <c r="G121" s="5">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="H121" s="5">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="I121" s="13">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="5">
+        <f>SUM(H121:I121)</f>
+        <v>0</v>
+      </c>
+      <c r="M121" s="13">
+        <v>17</v>
+      </c>
+      <c r="N121" s="5">
+        <f t="shared" si="75"/>
+        <v>10000</v>
+      </c>
+      <c r="O121" s="5">
+        <f t="shared" si="59"/>
+        <v>2500</v>
+      </c>
+      <c r="P121" s="13">
+        <f t="shared" si="60"/>
+        <v>9000.0000000000018</v>
+      </c>
+      <c r="Q121" s="13">
+        <f t="shared" si="61"/>
+        <v>11500.000000000002</v>
+      </c>
+      <c r="T121">
+        <v>14</v>
+      </c>
+      <c r="U121" s="5">
+        <f t="shared" si="71"/>
+        <v>17500</v>
+      </c>
+      <c r="V121" s="5">
+        <f t="shared" si="72"/>
+        <v>2500</v>
+      </c>
+      <c r="W121" s="13">
+        <f t="shared" si="73"/>
+        <v>13125.000000000002</v>
+      </c>
+      <c r="X121" s="13">
+        <f t="shared" si="74"/>
+        <v>15625.000000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>19</v>
+      </c>
+      <c r="B122" s="5">
+        <f t="shared" si="55"/>
+        <v>24125</v>
+      </c>
+      <c r="C122" s="5">
+        <f t="shared" si="64"/>
+        <v>-190450</v>
+      </c>
+      <c r="F122">
+        <v>19</v>
+      </c>
+      <c r="G122" s="5">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="H122" s="5">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="I122" s="13">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="5">
+        <f>SUM(H122:I122)</f>
+        <v>0</v>
+      </c>
       <c r="K122" s="13"/>
-      <c r="L122" s="13"/>
-      <c r="M122" s="13"/>
-      <c r="N122" s="13"/>
-      <c r="O122" s="13"/>
-      <c r="P122" s="13"/>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A123" s="13"/>
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="13"/>
-      <c r="I123" s="13"/>
-      <c r="J123" s="13"/>
+      <c r="M122" s="13">
+        <v>18</v>
+      </c>
+      <c r="N122" s="5">
+        <f t="shared" si="75"/>
+        <v>7500</v>
+      </c>
+      <c r="O122" s="5">
+        <f t="shared" si="59"/>
+        <v>2500</v>
+      </c>
+      <c r="P122" s="13">
+        <f t="shared" si="60"/>
+        <v>7125.0000000000009</v>
+      </c>
+      <c r="Q122" s="13">
+        <f t="shared" si="61"/>
+        <v>9625</v>
+      </c>
+      <c r="R122" s="13"/>
+      <c r="S122" s="13"/>
+      <c r="T122">
+        <v>15</v>
+      </c>
+      <c r="U122" s="5">
+        <f t="shared" si="71"/>
+        <v>15000</v>
+      </c>
+      <c r="V122" s="5">
+        <f t="shared" si="72"/>
+        <v>2500</v>
+      </c>
+      <c r="W122" s="13">
+        <f t="shared" si="73"/>
+        <v>12000</v>
+      </c>
+      <c r="X122" s="13">
+        <f t="shared" si="74"/>
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>20</v>
+      </c>
+      <c r="B123" s="5">
+        <f t="shared" si="55"/>
+        <v>20625</v>
+      </c>
+      <c r="C123" s="5">
+        <f t="shared" si="64"/>
+        <v>-190875</v>
+      </c>
+      <c r="F123">
+        <v>20</v>
+      </c>
+      <c r="G123" s="5">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="H123" s="5">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="I123" s="13">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="5">
+        <f>SUM(H123:I123)</f>
+        <v>0</v>
+      </c>
       <c r="K123" s="13"/>
-      <c r="L123" s="13"/>
-      <c r="M123" s="13"/>
-      <c r="N123" s="13"/>
-      <c r="O123" s="13"/>
-      <c r="P123" s="13"/>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A124" s="13"/>
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="13"/>
-      <c r="J124" s="13"/>
+      <c r="M123" s="13">
+        <v>19</v>
+      </c>
+      <c r="N123" s="5">
+        <f t="shared" si="75"/>
+        <v>5000</v>
+      </c>
+      <c r="O123" s="5">
+        <f t="shared" si="59"/>
+        <v>2500</v>
+      </c>
+      <c r="P123" s="13">
+        <f t="shared" si="60"/>
+        <v>5000</v>
+      </c>
+      <c r="Q123" s="13">
+        <f t="shared" si="61"/>
+        <v>7500</v>
+      </c>
+      <c r="R123" s="13"/>
+      <c r="S123" s="13"/>
+      <c r="T123">
+        <v>16</v>
+      </c>
+      <c r="U123" s="5">
+        <f t="shared" si="71"/>
+        <v>12500</v>
+      </c>
+      <c r="V123" s="5">
+        <f t="shared" si="72"/>
+        <v>2500</v>
+      </c>
+      <c r="W123" s="13">
+        <f t="shared" si="73"/>
+        <v>10625.000000000002</v>
+      </c>
+      <c r="X123" s="13">
+        <f t="shared" si="74"/>
+        <v>13125.000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>21</v>
+      </c>
+      <c r="B124" s="5">
+        <f t="shared" si="55"/>
+        <v>16625</v>
+      </c>
+      <c r="C124" s="5">
+        <f t="shared" si="64"/>
+        <v>-187300</v>
+      </c>
+      <c r="F124">
+        <v>21</v>
+      </c>
+      <c r="G124" s="5">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="H124" s="5">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="I124" s="13">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="5">
+        <f>SUM(H124:I124)</f>
+        <v>0</v>
+      </c>
       <c r="K124" s="13"/>
-      <c r="L124" s="13"/>
-      <c r="M124" s="13"/>
-      <c r="N124" s="13"/>
-      <c r="O124" s="13"/>
-      <c r="P124" s="13"/>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A125" s="13"/>
-      <c r="B125" s="13"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="13"/>
-      <c r="I125" s="13"/>
-      <c r="J125" s="13"/>
-      <c r="K125" s="13"/>
-      <c r="L125" s="13"/>
-      <c r="M125" s="13"/>
-      <c r="N125" s="13"/>
-      <c r="O125" s="13"/>
-      <c r="P125" s="13"/>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A126" s="13"/>
-      <c r="B126" s="13"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="13"/>
-      <c r="J126" s="13"/>
-      <c r="K126" s="13"/>
-      <c r="L126" s="13"/>
-      <c r="M126" s="13"/>
-      <c r="N126" s="13"/>
-      <c r="O126" s="13"/>
-      <c r="P126" s="13"/>
-      <c r="Q126" s="13"/>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A127" s="13"/>
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="13"/>
-      <c r="I127" s="13"/>
-      <c r="J127" s="13"/>
+      <c r="M124" s="13">
+        <v>20</v>
+      </c>
+      <c r="N124" s="5">
+        <f t="shared" si="75"/>
+        <v>2500</v>
+      </c>
+      <c r="O124" s="5">
+        <f t="shared" si="59"/>
+        <v>2500</v>
+      </c>
+      <c r="P124" s="13">
+        <f t="shared" si="60"/>
+        <v>2625</v>
+      </c>
+      <c r="Q124" s="13">
+        <f t="shared" si="61"/>
+        <v>5125</v>
+      </c>
+      <c r="R124" s="13"/>
+      <c r="S124" s="13"/>
+      <c r="T124">
+        <v>17</v>
+      </c>
+      <c r="U124" s="5">
+        <f t="shared" si="71"/>
+        <v>10000</v>
+      </c>
+      <c r="V124" s="5">
+        <f t="shared" si="72"/>
+        <v>2500</v>
+      </c>
+      <c r="W124" s="13">
+        <f t="shared" si="73"/>
+        <v>9000.0000000000018</v>
+      </c>
+      <c r="X124" s="13">
+        <f t="shared" si="74"/>
+        <v>11500.000000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>22</v>
+      </c>
+      <c r="B125" s="5">
+        <f t="shared" si="55"/>
+        <v>9625</v>
+      </c>
+      <c r="C125" s="5">
+        <f t="shared" si="64"/>
+        <v>-176725</v>
+      </c>
+      <c r="F125">
+        <v>22</v>
+      </c>
+      <c r="G125" s="5">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="H125" s="5">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="I125" s="13">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="5">
+        <f t="shared" ref="J125" si="77">SUM(H125:I125)</f>
+        <v>0</v>
+      </c>
+      <c r="M125" s="13">
+        <v>21</v>
+      </c>
+      <c r="N125" s="5">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="O125" s="5">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="P125" s="13">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="Q125" s="13">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="R125" s="13"/>
+      <c r="S125" s="13"/>
+      <c r="T125">
+        <v>18</v>
+      </c>
+      <c r="U125" s="5">
+        <f t="shared" si="71"/>
+        <v>7500</v>
+      </c>
+      <c r="V125" s="5">
+        <f t="shared" si="72"/>
+        <v>2500</v>
+      </c>
+      <c r="W125" s="13">
+        <f t="shared" si="73"/>
+        <v>7125.0000000000009</v>
+      </c>
+      <c r="X125" s="13">
+        <f t="shared" si="74"/>
+        <v>9625</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>23</v>
+      </c>
+      <c r="B126" s="5">
+        <f t="shared" si="55"/>
+        <v>7500</v>
+      </c>
+      <c r="C126" s="5">
+        <f t="shared" si="64"/>
+        <v>-164025</v>
+      </c>
+      <c r="F126">
+        <v>23</v>
+      </c>
+      <c r="G126" s="5">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="H126" s="5">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="I126" s="13">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="5">
+        <f>SUM(H126:I126)</f>
+        <v>0</v>
+      </c>
+      <c r="M126" s="13">
+        <v>22</v>
+      </c>
+      <c r="N126" s="5">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="O126" s="5">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="P126" s="13">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="Q126" s="13">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="R126" s="13"/>
+      <c r="S126" s="13"/>
+      <c r="T126">
+        <v>19</v>
+      </c>
+      <c r="U126" s="5">
+        <f t="shared" si="71"/>
+        <v>5000</v>
+      </c>
+      <c r="V126" s="5">
+        <f t="shared" si="72"/>
+        <v>2500</v>
+      </c>
+      <c r="W126" s="13">
+        <f t="shared" si="73"/>
+        <v>5000</v>
+      </c>
+      <c r="X126" s="13">
+        <f t="shared" si="74"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>24</v>
+      </c>
+      <c r="B127" s="5">
+        <f t="shared" si="55"/>
+        <v>5125</v>
+      </c>
+      <c r="C127" s="5">
+        <f>$B$28-B127+D127+C126-K127-R127</f>
+        <v>-148950</v>
+      </c>
+      <c r="F127">
+        <v>24</v>
+      </c>
+      <c r="G127" s="5">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="H127" s="5">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="I127" s="13">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="5">
+        <f>SUM(H127:I127)</f>
+        <v>0</v>
+      </c>
       <c r="K127" s="13"/>
-      <c r="L127" s="13"/>
-      <c r="M127" s="13"/>
-      <c r="N127" s="13"/>
-      <c r="O127" s="13"/>
-      <c r="P127" s="13"/>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A128" s="13"/>
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="13"/>
-      <c r="J128" s="13"/>
+      <c r="M127" s="13">
+        <v>23</v>
+      </c>
+      <c r="N127" s="5">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="O127" s="5">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="P127" s="13">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="Q127" s="13">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="R127" s="13"/>
+      <c r="S127" s="13"/>
+      <c r="T127">
+        <v>20</v>
+      </c>
+      <c r="U127" s="5">
+        <f t="shared" si="71"/>
+        <v>2500</v>
+      </c>
+      <c r="V127" s="5">
+        <f t="shared" si="72"/>
+        <v>2500</v>
+      </c>
+      <c r="W127" s="13">
+        <f t="shared" si="73"/>
+        <v>2625</v>
+      </c>
+      <c r="X127" s="13">
+        <f t="shared" si="74"/>
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>25</v>
+      </c>
+      <c r="B128" s="5">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="C128" s="5">
+        <f t="shared" si="64"/>
+        <v>-128750</v>
+      </c>
+      <c r="F128">
+        <v>25</v>
+      </c>
+      <c r="G128" s="5">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="H128" s="5">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="I128" s="13">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="J128" s="5">
+        <f>SUM(H128:I128)</f>
+        <v>0</v>
+      </c>
       <c r="K128" s="13"/>
-      <c r="L128" s="13"/>
-      <c r="M128" s="13"/>
-      <c r="N128" s="13"/>
-      <c r="O128" s="13"/>
-      <c r="P128" s="13"/>
-      <c r="Q128" s="13"/>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A129" s="13"/>
-      <c r="B129" s="13"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="13"/>
-      <c r="J129" s="13"/>
+      <c r="M128" s="13">
+        <v>24</v>
+      </c>
+      <c r="N128" s="5">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="O128" s="5">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="P128" s="13">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="Q128" s="13">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="R128" s="13"/>
+      <c r="S128" s="13"/>
+      <c r="T128">
+        <v>21</v>
+      </c>
+      <c r="U128" s="5">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="V128" s="5">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="W128" s="13">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="X128" s="13">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>26</v>
+      </c>
+      <c r="B129" s="5">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="C129" s="5">
+        <f t="shared" si="64"/>
+        <v>-108550</v>
+      </c>
+      <c r="F129">
+        <v>26</v>
+      </c>
+      <c r="G129" s="5">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="H129" s="5">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="I129" s="13">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="J129" s="5">
+        <f>SUM(H129:I129)</f>
+        <v>0</v>
+      </c>
       <c r="K129" s="13"/>
-      <c r="L129" s="13"/>
-      <c r="M129" s="13"/>
-      <c r="N129" s="13"/>
-      <c r="O129" s="13"/>
-      <c r="P129" s="13"/>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M129" s="13">
+        <v>25</v>
+      </c>
+      <c r="N129" s="5">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="O129" s="5">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="P129" s="13">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="Q129" s="13">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="R129" s="13"/>
+      <c r="S129" s="13"/>
+      <c r="T129">
+        <v>22</v>
+      </c>
+      <c r="U129" s="5">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="V129" s="5">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="W129" s="13">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="X129" s="13">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="13"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
@@ -56644,7 +59432,7 @@
       <c r="P130" s="13"/>
       <c r="Q130" s="13"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="13"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -56663,7 +59451,7 @@
       <c r="P131" s="13"/>
       <c r="Q131" s="13"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="13"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
@@ -56682,7 +59470,7 @@
       <c r="P132" s="13"/>
       <c r="Q132" s="13"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="13"/>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
@@ -56701,7 +59489,7 @@
       <c r="P133" s="13"/>
       <c r="Q133" s="13"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="13"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -56720,7 +59508,7 @@
       <c r="P134" s="13"/>
       <c r="Q134" s="13"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="13"/>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
@@ -56739,7 +59527,7 @@
       <c r="P135" s="13"/>
       <c r="Q135" s="13"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="13"/>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
@@ -56758,7 +59546,7 @@
       <c r="P136" s="13"/>
       <c r="Q136" s="13"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="13"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
@@ -56777,7 +59565,7 @@
       <c r="P137" s="13"/>
       <c r="Q137" s="13"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
@@ -56796,7 +59584,7 @@
       <c r="P138" s="13"/>
       <c r="Q138" s="13"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="13"/>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
@@ -56815,7 +59603,7 @@
       <c r="P139" s="13"/>
       <c r="Q139" s="13"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="13"/>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
@@ -56834,7 +59622,7 @@
       <c r="P140" s="13"/>
       <c r="Q140" s="13"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="13"/>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -56853,7 +59641,7 @@
       <c r="P141" s="13"/>
       <c r="Q141" s="13"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="13"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -56872,7 +59660,7 @@
       <c r="P142" s="13"/>
       <c r="Q142" s="13"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="13"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
@@ -56891,7 +59679,7 @@
       <c r="P143" s="13"/>
       <c r="Q143" s="13"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="13"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
@@ -60370,6 +63158,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H22:J24">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:K24">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -60381,7 +63181,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:K24">
+  <conditionalFormatting sqref="C39:D39 C53">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:C11 C14">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L11">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -60393,7 +63217,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39:D39 C53">
+  <conditionalFormatting sqref="L4:L12">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -60405,19 +63229,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:C11 C14">
-    <cfRule type="colorScale" priority="91">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L11">
+  <conditionalFormatting sqref="L4:L17">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -60429,32 +63241,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L12">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L17">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K4:K11">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -60468,7 +63256,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:I38">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -60482,7 +63270,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B38">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -60496,19 +63284,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31:K32">
-    <cfRule type="top10" dxfId="3" priority="13" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="15" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L31:L38">
-    <cfRule type="top10" dxfId="2" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:K34">
-    <cfRule type="top10" dxfId="1" priority="11" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="13" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:K36">
-    <cfRule type="top10" dxfId="0" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:B48">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -60522,7 +63310,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31:I48">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -60536,7 +63324,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:E48">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -60550,7 +63338,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C48">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -60563,8 +63351,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T21:T44 T46:U46">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="T21:T44 T46:V46">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -60578,7 +63366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q21:Q44">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -60592,7 +63380,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U21:U44">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -60606,7 +63394,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S21:S44">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -60619,7 +63407,35 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T21:T47 U46:U47">
+  <conditionalFormatting sqref="T21:T47 U46:V47">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{15ACA067-9853-4B28-B9C8-98A89A1B2027}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V46">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A9F6FC12-CD4D-4E8C-A099-68470145DBF1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V21:V44">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -60628,7 +63444,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{15ACA067-9853-4B28-B9C8-98A89A1B2027}</x14:id>
+          <x14:id>{DBFAA247-2128-4CAC-B419-30879A3B4286}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -60648,13 +63464,57 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>59</xdr:row>
+                    <xdr:row>54</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>60</xdr:row>
+                    <xdr:row>55</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="47106" r:id="rId5" name="Scroll Bar 2">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>66</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>67</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="47107" r:id="rId6" name="Scroll Bar 3">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>101</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>102</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -60770,7 +63630,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T21:T44 T46:U46</xm:sqref>
+          <xm:sqref>T21:T44 T46:V46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{98864D61-C72E-4D5A-B5EA-2097BD84B5C3}">
@@ -60822,7 +63682,33 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>T21:T47 U46:U47</xm:sqref>
+          <xm:sqref>T21:T47 U46:V47</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A9F6FC12-CD4D-4E8C-A099-68470145DBF1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>V46</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DBFAA247-2128-4CAC-B419-30879A3B4286}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>V21:V44</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
